--- a/fathkouhi_xai-swarm/results.xlsx
+++ b/fathkouhi_xai-swarm/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fathkouhi_xai-swarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9266F3A9-C8F3-48E6-8332-4E57C3410EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A54C96-1DBD-4694-94CB-6758A1C4C165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{8543CA0F-31BE-4B22-93CB-E2C67E1EB9D2}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="3" xr2:uid="{8543CA0F-31BE-4B22-93CB-E2C67E1EB9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="26">
   <si>
     <t>dataset_id</t>
   </si>
@@ -85,12 +85,45 @@
   <si>
     <t>clusterability</t>
   </si>
+  <si>
+    <t>dataset_name</t>
+  </si>
+  <si>
+    <t>num_features</t>
+  </si>
+  <si>
+    <t>num_instances</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>reading_hydro_downstream</t>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>humandevel</t>
+  </si>
+  <si>
+    <t>reading_hydro_upstream</t>
+  </si>
+  <si>
+    <t>SquareF</t>
+  </si>
+  <si>
+    <t>transplant</t>
+  </si>
+  <si>
+    <t>prnn_synth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +138,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,11 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,22 +522,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE07F1E-AE6A-4E39-9669-43ADBC225DFC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>44287</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>512</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>924</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45617</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>544</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>464</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255E762-451E-4A11-8C2C-4680A6C7FBE9}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A44" sqref="A44:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,111 +714,111 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.863394578297933E-2</v>
+        <v>4.5289285759676128E-3</v>
       </c>
       <c r="D2">
-        <v>0.11764872595630831</v>
+        <v>2.802032085144152E-3</v>
       </c>
       <c r="E2">
-        <v>0.58866855862365364</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0.62236968596612974</v>
+        <v>0.59186919318300113</v>
       </c>
       <c r="H2">
-        <v>0.21020878142857069</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.1176954905192053E-3</v>
+        <v>5.6608240503325431E-4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.54390898218159145</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>8.7036191493996162E-2</v>
+        <v>9.3760312346521605E-3</v>
       </c>
       <c r="G3">
-        <v>0.37435927643900468</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.1725940592680896</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.6094501813252771E-2</v>
+        <v>1.537944313296653E-3</v>
       </c>
       <c r="D4">
-        <v>0.24245302343595049</v>
+        <v>1.9989453863842989E-3</v>
       </c>
       <c r="E4">
-        <v>0.63454070768449478</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.1953520274393111</v>
+        <v>2.9346707665657931E-2</v>
       </c>
       <c r="G4">
-        <v>0.44103465255641522</v>
+        <v>0.59645034459727553</v>
       </c>
       <c r="H4">
-        <v>0.24913012771935131</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6.8670749664306637E-3</v>
+        <v>6.4091313806852494E-4</v>
       </c>
       <c r="D5">
-        <v>4.7903377596490333E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.52300358879311926</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.15568240737485281</v>
+        <v>9.3760312346521605E-3</v>
       </c>
       <c r="G5">
-        <v>0.5790770310170652</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.1886277596700438</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -649,9 +826,831 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>512</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>44267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7.851093373400099E-3</v>
+      </c>
+      <c r="D8">
+        <v>3.1397066121128789E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.22275206054495339</v>
+      </c>
+      <c r="G8">
+        <v>0.94842738205365396</v>
+      </c>
+      <c r="H8">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>44267</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1.638351602757231E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>6.9341982696569547E-3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>44267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1.1866407191499751E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.8118490464357287E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>2.9612161562554311</v>
+      </c>
+      <c r="G10">
+        <v>0.67622571692876965</v>
+      </c>
+      <c r="H10">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>44267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2.0638425299461848E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>6.9341982696569547E-3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>44267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>44267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.863394578297933E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.11764872595630831</v>
+      </c>
+      <c r="E14">
+        <v>0.58866855862365364</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0.62236968596612974</v>
+      </c>
+      <c r="H14">
+        <v>0.21020878142857069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4.1176954905192053E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.54390898218159145</v>
+      </c>
+      <c r="F15">
+        <v>8.7036191493996162E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.37435927643900468</v>
+      </c>
+      <c r="H15">
+        <v>0.1725940592680896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1.6094501813252771E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.24245302343595049</v>
+      </c>
+      <c r="E16">
+        <v>0.63454070768449478</v>
+      </c>
+      <c r="F16">
+        <v>0.1953520274393111</v>
+      </c>
+      <c r="G16">
+        <v>0.44103465255641522</v>
+      </c>
+      <c r="H16">
+        <v>0.24913012771935131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6.8670749664306637E-3</v>
+      </c>
+      <c r="D17">
+        <v>4.7903377596490333E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.52300358879311926</v>
+      </c>
+      <c r="F17">
+        <v>0.15568240737485281</v>
+      </c>
+      <c r="G17">
+        <v>0.5790770310170652</v>
+      </c>
+      <c r="H17">
+        <v>0.1886277596700438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>924</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4.1923706348125749E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.1304801813701548</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0.97008036979432855</v>
+      </c>
+      <c r="H20">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>924</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>8.8447790879469656E-4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.67426584862146199</v>
+      </c>
+      <c r="G21">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H21">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>924</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1.2423020142775319E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.45797391212635968</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.67426584862146199</v>
+      </c>
+      <c r="G22">
+        <v>5.2667578659370717E-2</v>
+      </c>
+      <c r="H22">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>924</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>9.2321175795335032E-4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.67426584862146199</v>
+      </c>
+      <c r="G23">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H23">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>924</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>924</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>44221</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4.2699742317199706E-3</v>
+      </c>
+      <c r="D26">
+        <v>3.8469924546708769E-3</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.17395925488561009</v>
+      </c>
+      <c r="G26">
+        <v>0.37303382584564621</v>
+      </c>
+      <c r="H26">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>44221</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>5.7499408721923824E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>1.565178125513106E-3</v>
+      </c>
+      <c r="G27">
+        <v>0.33261081527038178</v>
+      </c>
+      <c r="H27">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>44221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2.1199250221252438E-3</v>
+      </c>
+      <c r="D28">
+        <v>7.8293975534047475E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>3.7786217545590119</v>
+      </c>
+      <c r="G28">
+        <v>0.58258456461411534</v>
+      </c>
+      <c r="H28">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44221</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>6.1501502990722655E-4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>1.565178125513106E-3</v>
+      </c>
+      <c r="G29">
+        <v>0.33261081527038178</v>
+      </c>
+      <c r="H29">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>44221</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>44221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>45617</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>4.1000044345855706E-3</v>
+      </c>
+      <c r="D32">
+        <v>3.2134036238726719E-3</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0.91317527268243481</v>
+      </c>
+      <c r="H32">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>45617</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>5.8998942375183101E-4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>2.7797017785920631E-2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45617</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>2.1008408069610601E-3</v>
+      </c>
+      <c r="D34">
+        <v>3.2463335252625028E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.2443838753445669</v>
+      </c>
+      <c r="G34">
+        <v>4.1067835746661327E-2</v>
+      </c>
+      <c r="H34">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>45617</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>5.9999346733093258E-4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>2.7797017785920631E-2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>45617</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>45617</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>544</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>7.9261196984185111E-3</v>
+      </c>
+      <c r="D38">
+        <v>1.435921641512692E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.55386131952050455</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0.86170939638031263</v>
+      </c>
+      <c r="H38">
+        <v>0.47247266123279702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>544</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1.3346318845395689E-3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.50200221558331959</v>
+      </c>
+      <c r="F39">
+        <v>1.741928365762337E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.593852571684655</v>
+      </c>
+      <c r="H39">
+        <v>0.45062373664264549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>544</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>544</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>6.2221244529441552E-3</v>
+      </c>
+      <c r="D41">
+        <v>1.620006232045245E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.54212357557006896</v>
+      </c>
+      <c r="F41">
+        <v>2.3932970251808031E-2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.46010103437159589</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>544</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>544</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>464</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>7.5399875640869141E-3</v>
+      </c>
+      <c r="D44">
+        <v>9.3758264206654618E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.64637904506159649</v>
+      </c>
+      <c r="F44">
+        <v>1.7685614534794969</v>
+      </c>
+      <c r="G44">
+        <v>0.89623049219687867</v>
+      </c>
+      <c r="H44">
+        <v>0.51979315581418506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>464</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>8.7995529174804692E-4</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.59946048611379465</v>
+      </c>
+      <c r="F45">
+        <v>0.50718231958005644</v>
+      </c>
+      <c r="G45">
+        <v>0.967875150060024</v>
+      </c>
+      <c r="H45">
+        <v>0.52041834200398829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>464</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>8.1370401382446292E-3</v>
+      </c>
+      <c r="D46">
+        <v>0.23973839308245051</v>
+      </c>
+      <c r="E46">
+        <v>0.60965121557421087</v>
+      </c>
+      <c r="F46">
+        <v>2.3354575996765869</v>
+      </c>
+      <c r="G46">
+        <v>0.1195678271308523</v>
+      </c>
+      <c r="H46">
+        <v>0.47002349383259179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>464</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>3.6200141906738278E-3</v>
+      </c>
+      <c r="D47">
+        <v>6.5447867110381391E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.56209731022119191</v>
+      </c>
+      <c r="F47">
+        <v>0.51897300927071932</v>
+      </c>
+      <c r="G47">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H47">
+        <v>0.48322410123960757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>464</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>464</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
       </c>
     </row>
@@ -662,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270676A6-7F2D-4D8C-9E0F-5961171339EE}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A44" sqref="A44:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,111 +1705,93 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.348083655039469E-2</v>
+        <v>0.37729279953345402</v>
       </c>
       <c r="D2">
-        <v>7.6038725858906198E-2</v>
+        <v>1.402462576803071E-3</v>
       </c>
       <c r="E2">
-        <v>0.57503908492739475</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0.5070937743681484</v>
+        <v>0.78690070897097963</v>
       </c>
       <c r="H2">
-        <v>0.2160348382721704</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3.022321065266927E-3</v>
+        <v>5.2285128995367414E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6575330034007637</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>4.1939783823609807E-2</v>
+        <v>2.5412381068537411E-3</v>
       </c>
       <c r="G3">
-        <v>0.49288812315512498</v>
+        <v>0.80145563440415946</v>
       </c>
       <c r="H3">
-        <v>0.2404629332354124</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>6.7531426747639966E-3</v>
-      </c>
-      <c r="D4">
-        <v>0.26745924887485462</v>
-      </c>
-      <c r="E4">
-        <v>0.67992360804123586</v>
-      </c>
-      <c r="F4">
-        <v>0.16393006485903139</v>
-      </c>
-      <c r="G4">
-        <v>0.34309514575670552</v>
-      </c>
-      <c r="H4">
-        <v>0.24632060479637929</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6.4476013183593752E-3</v>
+        <v>5.3494059831424249E-3</v>
       </c>
       <c r="D5">
-        <v>8.0941501827831913E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.60631011201058671</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>7.5664176446232773E-2</v>
+        <v>2.5412381068537411E-3</v>
       </c>
       <c r="G5">
-        <v>0.52830097081954641</v>
+        <v>0.80145563440415946</v>
       </c>
       <c r="H5">
-        <v>0.27790012790895152</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -818,9 +1799,831 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>512</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>44267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7.4680815351770282E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.879436184293015E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.1226698202738379</v>
+      </c>
+      <c r="G8">
+        <v>0.75242830712303432</v>
+      </c>
+      <c r="H8">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>44267</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>7.4465224083433755E-4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>2.2999855715839221E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.7127659574468086</v>
+      </c>
+      <c r="H9">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>44267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1.89361166446767E-3</v>
+      </c>
+      <c r="D10">
+        <v>2.639702887596224E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.30790690005773319</v>
+      </c>
+      <c r="G10">
+        <v>0.5910037002775208</v>
+      </c>
+      <c r="H10">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>44267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>8.2976767357359536E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>2.2999855715839221E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.7127659574468086</v>
+      </c>
+      <c r="H11">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>44267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>44267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2.348083655039469E-2</v>
+      </c>
+      <c r="D14">
+        <v>7.6038725858906198E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.57503908492739475</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0.5070937743681484</v>
+      </c>
+      <c r="H14">
+        <v>0.2160348382721704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3.022321065266927E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.6575330034007637</v>
+      </c>
+      <c r="F15">
+        <v>4.1939783823609807E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.49288812315512498</v>
+      </c>
+      <c r="H15">
+        <v>0.2404629332354124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>6.7531426747639966E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.26745924887485462</v>
+      </c>
+      <c r="E16">
+        <v>0.67992360804123586</v>
+      </c>
+      <c r="F16">
+        <v>0.16393006485903139</v>
+      </c>
+      <c r="G16">
+        <v>0.34309514575670552</v>
+      </c>
+      <c r="H16">
+        <v>0.24632060479637929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6.4476013183593752E-3</v>
+      </c>
+      <c r="D17">
+        <v>8.0941501827831913E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.60631011201058671</v>
+      </c>
+      <c r="F17">
+        <v>7.5664176446232773E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.52830097081954641</v>
+      </c>
+      <c r="H17">
+        <v>0.27790012790895152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>924</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4.6920684667734001E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.1502529584721112</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0.85518893368192317</v>
+      </c>
+      <c r="H20">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>924</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>8.0756040719839244E-4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>1.3251852331290239</v>
+      </c>
+      <c r="G21">
+        <v>0.77564979480164142</v>
+      </c>
+      <c r="H21">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>924</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2.807910625751202E-3</v>
+      </c>
+      <c r="D22">
+        <v>0.51188985909439555</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>1.325185233129023</v>
+      </c>
+      <c r="G22">
+        <v>0.77086183310533507</v>
+      </c>
+      <c r="H22">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>924</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>9.2319341806265025E-4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>1.3251852331290239</v>
+      </c>
+      <c r="G23">
+        <v>0.77564979480164142</v>
+      </c>
+      <c r="H23">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>924</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>924</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>44221</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2.228282570838928E-2</v>
+      </c>
+      <c r="D26">
+        <v>2.3840346858831898E-3</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.50923515606530978</v>
+      </c>
+      <c r="G26">
+        <v>0.39458186454661381</v>
+      </c>
+      <c r="H26">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>44221</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>8.7996125221252437E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>3.4741944971192623E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.44238955973899352</v>
+      </c>
+      <c r="H27">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>44221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>1.005054712295532E-3</v>
+      </c>
+      <c r="D28">
+        <v>9.8757336106211041E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>5.1676354454591058</v>
+      </c>
+      <c r="G28">
+        <v>0.64421660541513548</v>
+      </c>
+      <c r="H28">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44221</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>9.2108011245727538E-4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>3.4741944971192623E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.44238955973899352</v>
+      </c>
+      <c r="H29">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>44221</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>44221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>45617</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>4.1989345550537113E-2</v>
+      </c>
+      <c r="D32">
+        <v>5.6596574092046981E-3</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0.47112605913125699</v>
+      </c>
+      <c r="H32">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>45617</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1.1237049102783201E-3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.54031026992190401</v>
+      </c>
+      <c r="G33">
+        <v>0.4128238713171804</v>
+      </c>
+      <c r="H33">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45617</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1.330438852310181E-3</v>
+      </c>
+      <c r="D34">
+        <v>4.2258081000179512E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>5.5699243810188044</v>
+      </c>
+      <c r="G34">
+        <v>0.25737764194524593</v>
+      </c>
+      <c r="H34">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>45617</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>1.1200046539306639E-3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>0.54031026992190401</v>
+      </c>
+      <c r="G35">
+        <v>0.4128238713171804</v>
+      </c>
+      <c r="H35">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>45617</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>45617</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>544</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3.4518709889164667E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.385560918280386E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.61497428264425547</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0.80523901158633038</v>
+      </c>
+      <c r="H38">
+        <v>0.31883276782378039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>544</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2.1481072461163558E-3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.51527371018886758</v>
+      </c>
+      <c r="F39">
+        <v>1.3420632972700131E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.46087586148666421</v>
+      </c>
+      <c r="H39">
+        <v>0.49912019932006718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>544</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>544</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>6.8516819565384466E-3</v>
+      </c>
+      <c r="D41">
+        <v>1.25926330503707E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.53432388043607293</v>
+      </c>
+      <c r="F41">
+        <v>1.8660095470945388E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.89826471195392976</v>
+      </c>
+      <c r="H41">
+        <v>0.37066952079067339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>544</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>544</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>464</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>8.6800003051757807E-3</v>
+      </c>
+      <c r="D44">
+        <v>0.1063787316455129</v>
+      </c>
+      <c r="E44">
+        <v>0.61325512456381781</v>
+      </c>
+      <c r="F44">
+        <v>1.9461354462291369</v>
+      </c>
+      <c r="G44">
+        <v>0.86060024009603842</v>
+      </c>
+      <c r="H44">
+        <v>0.43603389799555631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>464</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>9.2001438140869145E-4</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.57451825833160952</v>
+      </c>
+      <c r="F45">
+        <v>0.9020544765058931</v>
+      </c>
+      <c r="G45">
+        <v>0.77339735894357742</v>
+      </c>
+      <c r="H45">
+        <v>0.54267453496676299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>464</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>2.7999782562255862E-3</v>
+      </c>
+      <c r="D46">
+        <v>0.27750052511389378</v>
+      </c>
+      <c r="E46">
+        <v>0.60465157184325657</v>
+      </c>
+      <c r="F46">
+        <v>3.5967163987743418</v>
+      </c>
+      <c r="G46">
+        <v>0.24557022809123649</v>
+      </c>
+      <c r="H46">
+        <v>0.42524207786199603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>464</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>3.859987258911133E-3</v>
+      </c>
+      <c r="D47">
+        <v>0.1054359166505464</v>
+      </c>
+      <c r="E47">
+        <v>0.53772516410134052</v>
+      </c>
+      <c r="F47">
+        <v>1.1244019980551161</v>
+      </c>
+      <c r="G47">
+        <v>0.78972388955582229</v>
+      </c>
+      <c r="H47">
+        <v>0.52798234102867514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>464</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>464</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
       </c>
     </row>
@@ -831,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CF1288-85BD-41CF-8B2F-6CE4B547F321}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,139 +2678,1051 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.4991099039713541E-2</v>
+        <v>1.3441403905055171E-2</v>
       </c>
       <c r="D2">
-        <v>8.3009070743796765E-2</v>
+        <v>2.825534759494778E-3</v>
       </c>
       <c r="E2">
-        <v>0.64483891434006413</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.15495526921554501</v>
+        <v>0.12232240305678529</v>
       </c>
       <c r="H2">
-        <v>0.16521512082268711</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.9958806037902832E-2</v>
+        <v>1.294269228813952E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5790362077759138</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>6.0572808119961274E-3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.33048568692912311</v>
+        <v>0.12232240305678529</v>
       </c>
       <c r="H3">
-        <v>0.24611094969349229</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1.6448124249776201E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.27932754078483252</v>
-      </c>
-      <c r="E4">
-        <v>0.72665741976262366</v>
-      </c>
-      <c r="F4">
-        <v>1.455990622801958E-16</v>
-      </c>
-      <c r="G4">
-        <v>0.3410832562016573</v>
-      </c>
-      <c r="H4">
-        <v>0.28392183419368922</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2.5496522585550949E-2</v>
+        <v>1.170305837122282E-3</v>
       </c>
       <c r="D5">
-        <v>0.16726867283950619</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.55113999868487729</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>1.6786428995342949E-2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.30432209143889838</v>
+        <v>0.12232240305678529</v>
       </c>
       <c r="H5">
-        <v>0.32211987061909347</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.368888219197591E-3</v>
+        <v>0.83105642480445918</v>
       </c>
       <c r="D6">
-        <v>5.5862653306030581E-2</v>
+        <v>2.4937655802038708E-3</v>
       </c>
       <c r="E6">
-        <v>0.71836167028503606</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>6.4183890712613975E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3385040468935262</v>
+        <v>0.12232240305678529</v>
       </c>
       <c r="H6">
-        <v>0.23950706358119001</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>512</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>44267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.1276610354159739E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.6308059381442672E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>2.4632276656013228</v>
+      </c>
+      <c r="G8">
+        <v>0.48508325624421839</v>
+      </c>
+      <c r="H8">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>44267</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1.4893754999688331E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>14.24595686426383</v>
+      </c>
+      <c r="G9">
+        <v>0.28355325693816807</v>
+      </c>
+      <c r="H9">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>44267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1.048194093907133E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.49967858759619721</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>36.631636299724541</v>
+      </c>
+      <c r="G10">
+        <v>0.29666488942124092</v>
+      </c>
+      <c r="H10">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>44267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1.5531499335106379E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>14.24595686426383</v>
+      </c>
+      <c r="G11">
+        <v>0.28355325693816807</v>
+      </c>
+      <c r="H11">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>44267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4.4509157221368022E-2</v>
+      </c>
+      <c r="D12">
+        <v>8.9361702127659544E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>14.24595654584188</v>
+      </c>
+      <c r="G12">
+        <v>0.28355325693816807</v>
+      </c>
+      <c r="H12">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>44267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2.4991099039713541E-2</v>
+      </c>
+      <c r="D14">
+        <v>8.3009070743796765E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.64483891434006413</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0.15495526921554501</v>
+      </c>
+      <c r="H14">
+        <v>0.16521512082268711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>6.9958806037902832E-2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.5790362077759138</v>
+      </c>
+      <c r="F15">
+        <v>6.0572808119961274E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.33048568692912311</v>
+      </c>
+      <c r="H15">
+        <v>0.24611094969349229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1.6448124249776201E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.27932754078483252</v>
+      </c>
+      <c r="E16">
+        <v>0.72665741976262366</v>
+      </c>
+      <c r="F16">
+        <v>1.455990622801958E-16</v>
+      </c>
+      <c r="G16">
+        <v>0.3410832562016573</v>
+      </c>
+      <c r="H16">
+        <v>0.28392183419368922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>2.5496522585550949E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.16726867283950619</v>
+      </c>
+      <c r="E17">
+        <v>0.55113999868487729</v>
+      </c>
+      <c r="F17">
+        <v>1.6786428995342949E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.30432209143889838</v>
+      </c>
+      <c r="H17">
+        <v>0.32211987061909347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>1.368888219197591E-3</v>
+      </c>
+      <c r="D18">
+        <v>5.5862653306030581E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.71836167028503606</v>
+      </c>
+      <c r="F18">
+        <v>6.4183890712613975E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.3385040468935262</v>
+      </c>
+      <c r="H18">
+        <v>0.23950706358119001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>924</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>9.1153658353365381E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.17470382210338151</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0.93725424519078404</v>
+      </c>
+      <c r="H20">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>924</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1.5384417313795821E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>19.279067838894239</v>
+      </c>
+      <c r="G21">
+        <v>0.94372844907151832</v>
+      </c>
+      <c r="H21">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>924</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>8.5770900432880111E-3</v>
+      </c>
+      <c r="D22">
+        <v>0.4524457593688363</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>7.1028144669610356</v>
+      </c>
+      <c r="G22">
+        <v>0.69144460625041937</v>
+      </c>
+      <c r="H22">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>924</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1.576836292560284E-3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>19.279067838894239</v>
+      </c>
+      <c r="G23">
+        <v>0.94372844907151832</v>
+      </c>
+      <c r="H23">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>924</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>8.7426258967472962E-4</v>
+      </c>
+      <c r="D24">
+        <v>8.322485198254867E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>19.279067407973489</v>
+      </c>
+      <c r="G24">
+        <v>0.93582211781501656</v>
+      </c>
+      <c r="H24">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>924</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>44221</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1.2271031141281131E-2</v>
+      </c>
+      <c r="D26">
+        <v>5.8141795149916778E-3</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>5.3568841845935742</v>
+      </c>
+      <c r="G26">
+        <v>0.15075235917909019</v>
+      </c>
+      <c r="H26">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>44221</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1.565215587615967E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.72168720598661562</v>
+      </c>
+      <c r="G27">
+        <v>3.9904592377687641E-2</v>
+      </c>
+      <c r="H27">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>44221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44221</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>1.539820432662964E-3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.72168720598661562</v>
+      </c>
+      <c r="G29">
+        <v>3.9904592377687641E-2</v>
+      </c>
+      <c r="H29">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>44221</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>0.34842704772949218</v>
+      </c>
+      <c r="D30">
+        <v>4.9999999966472428E-3</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.7216871898556495</v>
+      </c>
+      <c r="G30">
+        <v>3.9904592377687641E-2</v>
+      </c>
+      <c r="H30">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>44221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>45617</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1.1535627841949459E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.217740164333027E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0.55746296265438189</v>
+      </c>
+      <c r="H32">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>45617</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1.084997653961182E-3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>28.98160021461889</v>
+      </c>
+      <c r="G33">
+        <v>0.21054421678243479</v>
+      </c>
+      <c r="H33">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45617</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>5.4299962520599366E-3</v>
+      </c>
+      <c r="D34">
+        <v>0.97629999999999839</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>28.98160021461894</v>
+      </c>
+      <c r="G34">
+        <v>6.2984812126710296E-2</v>
+      </c>
+      <c r="H34">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>45617</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>1.1099839210510251E-3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>28.98160021461889</v>
+      </c>
+      <c r="G35">
+        <v>0.21054421678243479</v>
+      </c>
+      <c r="H35">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>45617</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>0.48501704096794129</v>
+      </c>
+      <c r="D36">
+        <v>9.9999997809529229E-3</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>28.981599566829651</v>
+      </c>
+      <c r="G36">
+        <v>0.21054421678243479</v>
+      </c>
+      <c r="H36">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>45617</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>544</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1.503704212330006E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.731181947569879E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.56245735946379183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0.33675539492685158</v>
+      </c>
+      <c r="H38">
+        <v>0.4571021149543385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>544</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1.3819500252052591E-2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.54666086213871323</v>
+      </c>
+      <c r="F39">
+        <v>5.0797749006007793</v>
+      </c>
+      <c r="G39">
+        <v>0.21629505718752179</v>
+      </c>
+      <c r="H39">
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>544</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>544</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1.9549458115189159E-2</v>
+      </c>
+      <c r="D41">
+        <v>4.5171046888639467E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.50795965676979482</v>
+      </c>
+      <c r="F41">
+        <v>7.007209970615909</v>
+      </c>
+      <c r="G41">
+        <v>0.7294595139284159</v>
+      </c>
+      <c r="H41">
+        <v>0.9259259236816848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>544</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>0.14973405555442529</v>
+      </c>
+      <c r="D42">
+        <v>3.2937674944973697E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.56661701423369748</v>
+      </c>
+      <c r="F42">
+        <v>4.2949018962894696</v>
+      </c>
+      <c r="G42">
+        <v>0.25656677186383131</v>
+      </c>
+      <c r="H42">
+        <v>0.83333333333333515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>544</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>464</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1.308419227600098E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.12740564167488919</v>
+      </c>
+      <c r="E44">
+        <v>0.52827947310279688</v>
+      </c>
+      <c r="F44">
+        <v>2.4275221330289019</v>
+      </c>
+      <c r="G44">
+        <v>0.74367346938775503</v>
+      </c>
+      <c r="H44">
+        <v>0.49708836953759622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>464</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>6.8399333953857418E-3</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.50674131627056662</v>
+      </c>
+      <c r="F45">
+        <v>2.3923092152362888</v>
+      </c>
+      <c r="G45">
+        <v>0.70315780159722152</v>
+      </c>
+      <c r="H45">
+        <v>0.59936787385141155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>464</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>1.1979994773864751E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.33149999999999991</v>
+      </c>
+      <c r="E46">
+        <v>0.54841040462427748</v>
+      </c>
+      <c r="F46">
+        <v>3.395083657507779</v>
+      </c>
+      <c r="G46">
+        <v>0.46354330694786811</v>
+      </c>
+      <c r="H46">
+        <v>0.57756288498912378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>464</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>9.4022035598754876E-3</v>
+      </c>
+      <c r="D47">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.50052680870990396</v>
+      </c>
+      <c r="F47">
+        <v>6.3428318862764312</v>
+      </c>
+      <c r="G47">
+        <v>0.65595838951218211</v>
+      </c>
+      <c r="H47">
+        <v>0.70018413182600003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>464</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>2.979984283447265E-3</v>
+      </c>
+      <c r="D48">
+        <v>9.158599894307555E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.53834270958221897</v>
+      </c>
+      <c r="F48">
+        <v>2.196628689830193</v>
+      </c>
+      <c r="G48">
+        <v>0.79070105307189875</v>
+      </c>
+      <c r="H48">
+        <v>0.54334479744285968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>464</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
       </c>
     </row>

--- a/fathkouhi_xai-swarm/results.xlsx
+++ b/fathkouhi_xai-swarm/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fathkouhi_xai-swarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A54C96-1DBD-4694-94CB-6758A1C4C165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555D951C-3F18-4FB7-9A32-5364A860F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="3" xr2:uid="{8543CA0F-31BE-4B22-93CB-E2C67E1EB9D2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="39">
   <si>
     <t>dataset_id</t>
   </si>
@@ -117,6 +117,45 @@
   </si>
   <si>
     <t>prnn_synth</t>
+  </si>
+  <si>
+    <t>analcatdata_neavote</t>
+  </si>
+  <si>
+    <t>vinnie</t>
+  </si>
+  <si>
+    <t>analcatdata_hiroshima</t>
+  </si>
+  <si>
+    <t>rmftsa_ctoarrivals</t>
+  </si>
+  <si>
+    <t>chscase_vine2</t>
+  </si>
+  <si>
+    <t>UNIX_user_data</t>
+  </si>
+  <si>
+    <t>rmftsa_sleepdata</t>
+  </si>
+  <si>
+    <t>rabe_266</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>chscase_geyser1</t>
+  </si>
+  <si>
+    <t>mbagrade</t>
+  </si>
+  <si>
+    <t>visualizing_ethanol</t>
+  </si>
+  <si>
+    <t>chscase_geyser1712</t>
   </si>
 </sst>
 </file>
@@ -522,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE07F1E-AE6A-4E39-9669-43ADBC225DFC}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +701,188 @@
         <v>250</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>523</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>519</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>494</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>686</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>689</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>679</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>679</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1460</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>895</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>887</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>711</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>712</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -670,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255E762-451E-4A11-8C2C-4680A6C7FBE9}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:H49"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,11 +1867,1484 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>464</v>
       </c>
       <c r="B49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>519</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>7.591937717638518E-3</v>
+      </c>
+      <c r="D50">
+        <v>3.6045575675067353E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.6835230777793333</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0.51516884399568541</v>
+      </c>
+      <c r="H50">
+        <v>0.34086559729107369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>519</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>8.5520116906417042E-4</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.60732504888167194</v>
+      </c>
+      <c r="F51">
+        <v>0.18700226168412551</v>
+      </c>
+      <c r="G51">
+        <v>0.5131986477613264</v>
+      </c>
+      <c r="H51">
+        <v>0.60096339848714031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>519</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>8.2255350916009204E-3</v>
+      </c>
+      <c r="D52">
+        <v>5.2150164327809792E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.66361688509812078</v>
+      </c>
+      <c r="F52">
+        <v>0.66047472362825177</v>
+      </c>
+      <c r="G52">
+        <v>6.2570202265819552E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.51436077455110518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>519</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>2.6177230634187401E-3</v>
+      </c>
+      <c r="D53">
+        <v>1.4109621618776869E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.72167910399671642</v>
+      </c>
+      <c r="F53">
+        <v>4.4319013561364813E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.72690622261174409</v>
+      </c>
+      <c r="H53">
+        <v>0.63886602974681217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>519</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>519</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>523</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>7.7993273735046387E-3</v>
+      </c>
+      <c r="D56">
+        <v>0.1196207235161723</v>
+      </c>
+      <c r="E56">
+        <v>0.75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>0.4316560460317187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>523</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1.349997520446777E-3</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.59266362635242631</v>
+      </c>
+      <c r="F57">
+        <v>-99999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.70231670440012883</v>
+      </c>
+      <c r="H57">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>523</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>523</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>8.0500245094299316E-3</v>
+      </c>
+      <c r="D59">
+        <v>8.0411507392310469E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.67981850874349636</v>
+      </c>
+      <c r="F59">
+        <v>-99999999999</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>523</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>523</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>494</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>7.6384746111356292E-3</v>
+      </c>
+      <c r="D62">
+        <v>2.6970116674979009E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>0.59525476379117848</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>494</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>7.9547992119422331E-4</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.67643392756177156</v>
+      </c>
+      <c r="F63">
+        <v>0.15003427367644151</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>494</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>2.8307254497821508E-3</v>
+      </c>
+      <c r="D64">
+        <v>9.9249865459928671E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.75</v>
+      </c>
+      <c r="F64">
+        <v>0.34873346893595791</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>494</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>1.8972855347853439E-3</v>
+      </c>
+      <c r="D65">
+        <v>1.468100521359117E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.74997075019620163</v>
+      </c>
+      <c r="F65">
+        <v>0.20270087639281101</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>494</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>494</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>686</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>8.0115030396659421E-3</v>
+      </c>
+      <c r="D68">
+        <v>8.7846861008363721E-3</v>
+      </c>
+      <c r="E68">
+        <v>0.53024909314351709</v>
+      </c>
+      <c r="F68">
+        <v>1.4145981487606291E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.82266299904060458</v>
+      </c>
+      <c r="H68">
+        <v>0.58519932177503464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>686</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>1.245251241719948E-3</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.50143947657744015</v>
+      </c>
+      <c r="F69">
+        <v>1.1471103649585821E-2</v>
+      </c>
+      <c r="G69">
+        <v>0.77903177775402344</v>
+      </c>
+      <c r="H69">
+        <v>0.43047096409018148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>686</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>686</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>3.7169456481933589E-3</v>
+      </c>
+      <c r="D71">
+        <v>8.2291406536530443E-3</v>
+      </c>
+      <c r="E71">
+        <v>0.52642911959602001</v>
+      </c>
+      <c r="F71">
+        <v>1.5981182540299291E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.91063394683026588</v>
+      </c>
+      <c r="H71">
+        <v>0.4536830305689582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>686</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>686</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>689</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>7.5573946567291913E-3</v>
+      </c>
+      <c r="D74">
+        <v>2.661503730398149E-3</v>
+      </c>
+      <c r="E74">
+        <v>0.55786735122449727</v>
+      </c>
+      <c r="F74">
+        <v>0.1189591645837768</v>
+      </c>
+      <c r="G74">
+        <v>0.86368389124454992</v>
+      </c>
+      <c r="H74">
+        <v>0.55542156510238028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>689</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>7.8722263904328039E-4</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.57161462840536736</v>
+      </c>
+      <c r="F75">
+        <v>1.4659334176308551E-2</v>
+      </c>
+      <c r="G75">
+        <v>0.8955544953810104</v>
+      </c>
+      <c r="H75">
+        <v>0.44744049265562419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>689</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>689</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>2.1808477158242081E-3</v>
+      </c>
+      <c r="D77">
+        <v>2.7379230577768338E-3</v>
+      </c>
+      <c r="E77">
+        <v>0.56957281492162937</v>
+      </c>
+      <c r="F77">
+        <v>7.5146594688411299E-3</v>
+      </c>
+      <c r="G77">
+        <v>0.95765565508286199</v>
+      </c>
+      <c r="H77">
+        <v>0.43591542482864559</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>689</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>689</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>373</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>4.026789979620294E-3</v>
+      </c>
+      <c r="D80">
+        <v>2.1237101265712301E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>0.93524800601161051</v>
+      </c>
+      <c r="H80">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>373</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>5.4065932284344683E-4</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.5</v>
+      </c>
+      <c r="F81">
+        <v>0.2005242571658172</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>4.0186905598902441E-4</v>
+      </c>
+      <c r="D82">
+        <v>0.14566334195181349</v>
+      </c>
+      <c r="E82">
+        <v>0.5</v>
+      </c>
+      <c r="F82">
+        <v>64.552623933350134</v>
+      </c>
+      <c r="G82">
+        <v>0.4075338807891235</v>
+      </c>
+      <c r="H82">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>373</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>5.7367833106072397E-4</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+      <c r="F83">
+        <v>0.2005242571658172</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>373</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>679</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>7.2487761334675124E-3</v>
+      </c>
+      <c r="D86">
+        <v>8.2365091983030887E-3</v>
+      </c>
+      <c r="E86">
+        <v>0.59435756693005692</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0.92707987632280697</v>
+      </c>
+      <c r="H86">
+        <v>0.52166083655832696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>679</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>6.7316380942740092E-4</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.64848518947392031</v>
+      </c>
+      <c r="F87">
+        <v>9.237114034621895E-3</v>
+      </c>
+      <c r="G87">
+        <v>0.53874427435093464</v>
+      </c>
+      <c r="H87">
+        <v>0.46602482419544627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>679</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>3.336607537618498E-3</v>
+      </c>
+      <c r="D88">
+        <v>5.8760791216296702E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.54270346141453074</v>
+      </c>
+      <c r="F88">
+        <v>1.5599846452427819</v>
+      </c>
+      <c r="G88">
+        <v>0.16818989892809311</v>
+      </c>
+      <c r="H88">
+        <v>0.40094854843774658</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>679</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>1.352509056649557E-3</v>
+      </c>
+      <c r="D89">
+        <v>6.0868507126677716E-3</v>
+      </c>
+      <c r="E89">
+        <v>0.68239699125163866</v>
+      </c>
+      <c r="F89">
+        <v>1.262371839610564E-2</v>
+      </c>
+      <c r="G89">
+        <v>0.69180420924962771</v>
+      </c>
+      <c r="H89">
+        <v>0.6826026219713317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>679</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>679</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>679</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>7.8103879602943981E-3</v>
+      </c>
+      <c r="D92">
+        <v>1.446989373680907E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.64008426966563614</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>0.90009652622005909</v>
+      </c>
+      <c r="H92">
+        <v>0.49944514913391708</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>679</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>6.8291803685630243E-4</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.55099221115811647</v>
+      </c>
+      <c r="F93">
+        <v>1.2991508539452421E-2</v>
+      </c>
+      <c r="G93">
+        <v>0.65693677803860162</v>
+      </c>
+      <c r="H93">
+        <v>0.38312638304429941</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>679</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>3.3560904060922019E-3</v>
+      </c>
+      <c r="D94">
+        <v>7.2137439105690065E-2</v>
+      </c>
+      <c r="E94">
+        <v>0.55438387807518341</v>
+      </c>
+      <c r="F94">
+        <v>2.6273158057969579</v>
+      </c>
+      <c r="G94">
+        <v>7.7521913277476207E-2</v>
+      </c>
+      <c r="H94">
+        <v>0.36393402416275611</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>679</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1.434147067186309E-3</v>
+      </c>
+      <c r="D95">
+        <v>1.7183188270142851E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.60081571464124894</v>
+      </c>
+      <c r="F95">
+        <v>1.775417920355303E-2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0.40379621573515012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>679</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>679</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1460</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>7.2354678837758188E-3</v>
+      </c>
+      <c r="D98">
+        <v>1.546076750810391E-2</v>
+      </c>
+      <c r="E98">
+        <v>0.51645959234618688</v>
+      </c>
+      <c r="F98">
+        <v>48.676966176224788</v>
+      </c>
+      <c r="G98">
+        <v>0.94225075965305627</v>
+      </c>
+      <c r="H98">
+        <v>0.47808981615296098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1460</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>6.1612241673019699E-4</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0.53695219149037166</v>
+      </c>
+      <c r="F99">
+        <v>3.1483288763593943E-2</v>
+      </c>
+      <c r="G99">
+        <v>0.95974629741376494</v>
+      </c>
+      <c r="H99">
+        <v>0.36878818678924369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1460</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1.532072616073321E-3</v>
+      </c>
+      <c r="D100">
+        <v>3.7120715072540361E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.52102202836173173</v>
+      </c>
+      <c r="F100">
+        <v>2.676074343703676</v>
+      </c>
+      <c r="G100">
+        <v>0.55453859919117621</v>
+      </c>
+      <c r="H100">
+        <v>0.37673092030953548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1460</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>7.3585307823037201E-4</v>
+      </c>
+      <c r="D101">
+        <v>1.0307866175008481E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.57585382902231608</v>
+      </c>
+      <c r="F101">
+        <v>2.1039944227724299E-2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0.35716221718515279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1460</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1460</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>895</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>7.3247273763020837E-3</v>
+      </c>
+      <c r="D104">
+        <v>0.10334431239994769</v>
+      </c>
+      <c r="E104">
+        <v>0.69565846670788223</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>0.52408846136131904</v>
+      </c>
+      <c r="H104">
+        <v>0.38345828289582562</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>895</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>8.8888804117838547E-4</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0.71291398089661029</v>
+      </c>
+      <c r="F105">
+        <v>0.5485284157047402</v>
+      </c>
+      <c r="G105">
+        <v>0.90914453051378286</v>
+      </c>
+      <c r="H105">
+        <v>0.48577214124357299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>895</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>6.9999641842312284E-3</v>
+      </c>
+      <c r="D106">
+        <v>0.2045340664547145</v>
+      </c>
+      <c r="E106">
+        <v>0.70788481122219993</v>
+      </c>
+      <c r="F106">
+        <v>1.1599147956185329</v>
+      </c>
+      <c r="G106">
+        <v>0.26875514311273208</v>
+      </c>
+      <c r="H106">
+        <v>0.56468882328757064</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>895</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>3.8666142357720269E-3</v>
+      </c>
+      <c r="D107">
+        <v>1.8186848988110769E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.69691099297729631</v>
+      </c>
+      <c r="F107">
+        <v>0.48047748806232432</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0.47805128899333688</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>895</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>895</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>887</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>7.691218302800105E-3</v>
+      </c>
+      <c r="D110">
+        <v>7.7310450234711781E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.50140067874658567</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>0.87885510901967723</v>
+      </c>
+      <c r="H110">
+        <v>0.36184834077196321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>887</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>1.6153225531944861E-3</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0.5190265017840634</v>
+      </c>
+      <c r="F111">
+        <v>0.17424213555217061</v>
+      </c>
+      <c r="G111">
+        <v>0.89923534261773175</v>
+      </c>
+      <c r="H111">
+        <v>0.39633080750134397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>887</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>2.410712608924279E-2</v>
+      </c>
+      <c r="D112">
+        <v>0.16347868774051491</v>
+      </c>
+      <c r="E112">
+        <v>0.59968429141432522</v>
+      </c>
+      <c r="F112">
+        <v>0.19300702553254481</v>
+      </c>
+      <c r="G112">
+        <v>0.44698414929486502</v>
+      </c>
+      <c r="H112">
+        <v>0.36663943666032039</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>887</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>1.179685959449181E-2</v>
+      </c>
+      <c r="D113">
+        <v>5.6297272543992631E-2</v>
+      </c>
+      <c r="E113">
+        <v>0.52994085604336683</v>
+      </c>
+      <c r="F113">
+        <v>0.15319573002744419</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0.39702559607018179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>887</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>887</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>711</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>7.7777968512641061E-3</v>
+      </c>
+      <c r="D116">
+        <v>2.0400804956203888E-2</v>
+      </c>
+      <c r="E116">
+        <v>0.65948932768810731</v>
+      </c>
+      <c r="F116">
+        <v>0.12607121336429999</v>
+      </c>
+      <c r="G116">
+        <v>0.72998758883046289</v>
+      </c>
+      <c r="H116">
+        <v>0.51590253657310359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>711</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>1.333422131008572E-3</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0.50250697787005594</v>
+      </c>
+      <c r="F117">
+        <v>2.0363111216246271E-2</v>
+      </c>
+      <c r="G117">
+        <v>0.75411592340886147</v>
+      </c>
+      <c r="H117">
+        <v>0.37312353605519782</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>711</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>711</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>8.7223317888047956E-3</v>
+      </c>
+      <c r="D119">
+        <v>2.0419581957016781E-2</v>
+      </c>
+      <c r="E119">
+        <v>0.61902639610978583</v>
+      </c>
+      <c r="F119">
+        <v>2.7779424331848868E-2</v>
+      </c>
+      <c r="G119">
+        <v>0.96026490066225167</v>
+      </c>
+      <c r="H119">
+        <v>0.39959472744250668</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>711</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>711</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>712</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>7.422171698676215E-3</v>
+      </c>
+      <c r="D122">
+        <v>5.4048387567528437E-2</v>
+      </c>
+      <c r="E122">
+        <v>0.57306761729841615</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>0.91089700183167555</v>
+      </c>
+      <c r="H122">
+        <v>0.44634411330836787</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>712</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>9.7782876756456164E-4</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0.54233965912527027</v>
+      </c>
+      <c r="F123">
+        <v>0.11066172889002381</v>
+      </c>
+      <c r="G123">
+        <v>0.61065962324209799</v>
+      </c>
+      <c r="H123">
+        <v>0.49084486729383681</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>712</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>2.057157622443305E-2</v>
+      </c>
+      <c r="D124">
+        <v>7.2160476982911587E-2</v>
+      </c>
+      <c r="E124">
+        <v>0.60296530303066875</v>
+      </c>
+      <c r="F124">
+        <v>0.41333688659961021</v>
+      </c>
+      <c r="G124">
+        <v>0.18714778593757639</v>
+      </c>
+      <c r="H124">
+        <v>0.5184700634030166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>712</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>3.6888758341471349E-3</v>
+      </c>
+      <c r="D125">
+        <v>4.9660330727032118E-2</v>
+      </c>
+      <c r="E125">
+        <v>0.6027451222355894</v>
+      </c>
+      <c r="F125">
+        <v>0.15648217790843749</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0.51409819564885262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>712</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>712</v>
+      </c>
+      <c r="B127" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1661,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270676A6-7F2D-4D8C-9E0F-5961171339EE}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:H49"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,11 +4313,1484 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>464</v>
       </c>
       <c r="B49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>519</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1.1405787969890391E-2</v>
+      </c>
+      <c r="D50">
+        <v>3.3812620262718612E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.66910366332923199</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0.53254739335149615</v>
+      </c>
+      <c r="H50">
+        <v>0.32460912940780617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>519</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1.1659515531439531E-3</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.60660851276152461</v>
+      </c>
+      <c r="F51">
+        <v>0.30238236548393821</v>
+      </c>
+      <c r="G51">
+        <v>0.43458124549291699</v>
+      </c>
+      <c r="H51">
+        <v>0.58392900468560982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>519</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>4.8342566741140262E-3</v>
+      </c>
+      <c r="D52">
+        <v>5.4403039300347421E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.7056615987876782</v>
+      </c>
+      <c r="F52">
+        <v>1.0162381307947901</v>
+      </c>
+      <c r="G52">
+        <v>0.1416554451294596</v>
+      </c>
+      <c r="H52">
+        <v>0.51055921043890751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>519</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>2.7105870999787978E-3</v>
+      </c>
+      <c r="D53">
+        <v>1.4163599252056101E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.57603220052214121</v>
+      </c>
+      <c r="F53">
+        <v>0.11457197072499931</v>
+      </c>
+      <c r="G53">
+        <v>0.40088919337918949</v>
+      </c>
+      <c r="H53">
+        <v>0.60250974052531847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>519</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>519</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>523</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>9.8498582839965827E-3</v>
+      </c>
+      <c r="D56">
+        <v>8.7213517350453268E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>0.46503633361310392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>523</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1.299965381622314E-3</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.68109864249664243</v>
+      </c>
+      <c r="F57">
+        <v>-99999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.70231670440012883</v>
+      </c>
+      <c r="H57">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>523</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>523</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>7.6999783515930174E-3</v>
+      </c>
+      <c r="D59">
+        <v>5.5277401189456378E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.6245572841669943</v>
+      </c>
+      <c r="F59">
+        <v>-99999999999</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>523</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>523</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>494</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1.5616345405578611E-2</v>
+      </c>
+      <c r="D62">
+        <v>2.64508298726213E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>0.62063872148695554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>494</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>1.11538263467642E-3</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.64471097512894737</v>
+      </c>
+      <c r="F63">
+        <v>0.20382822647583301</v>
+      </c>
+      <c r="H63">
+        <v>0.99999999602714129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>494</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>9.4615129324106067E-4</v>
+      </c>
+      <c r="D64">
+        <v>6.1297002988266083E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.75</v>
+      </c>
+      <c r="F64">
+        <v>1.5869729962055108E-2</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>494</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>2.0373050983135518E-3</v>
+      </c>
+      <c r="D65">
+        <v>1.511430373556742E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.70038846519294773</v>
+      </c>
+      <c r="F65">
+        <v>2.4090273339484072E-2</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>494</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>494</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>686</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0.11639713791181459</v>
+      </c>
+      <c r="D68">
+        <v>7.1437955888758913E-3</v>
+      </c>
+      <c r="E68">
+        <v>0.61918590943223151</v>
+      </c>
+      <c r="F68">
+        <v>2.1146232550184382E-3</v>
+      </c>
+      <c r="G68">
+        <v>0.83677617094575241</v>
+      </c>
+      <c r="H68">
+        <v>0.45927301371629992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>686</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>3.6792305280577459E-3</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.51449873249723388</v>
+      </c>
+      <c r="F69">
+        <v>8.2046784049024171E-3</v>
+      </c>
+      <c r="G69">
+        <v>0.71151999026817814</v>
+      </c>
+      <c r="H69">
+        <v>0.49586993185714773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>686</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>686</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>6.1320583775358378E-3</v>
+      </c>
+      <c r="D71">
+        <v>7.8257602041132725E-3</v>
+      </c>
+      <c r="E71">
+        <v>0.50902916691227529</v>
+      </c>
+      <c r="F71">
+        <v>1.1601534738481221E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.79533260670402428</v>
+      </c>
+      <c r="H71">
+        <v>0.49403956711495228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>686</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>686</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>689</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>6.5960234784065402E-2</v>
+      </c>
+      <c r="D74">
+        <v>3.2855616371197092E-3</v>
+      </c>
+      <c r="E74">
+        <v>0.50541254995225449</v>
+      </c>
+      <c r="F74">
+        <v>6.6884971172137759E-3</v>
+      </c>
+      <c r="G74">
+        <v>0.63475611029662837</v>
+      </c>
+      <c r="H74">
+        <v>0.33726701176403973</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>689</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>3.9041955420311462E-3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.58071555335099301</v>
+      </c>
+      <c r="F75">
+        <v>5.4436856613605273E-3</v>
+      </c>
+      <c r="G75">
+        <v>0.62122253817061623</v>
+      </c>
+      <c r="H75">
+        <v>0.55710432766415052</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>689</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>689</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>5.2714170293605084E-3</v>
+      </c>
+      <c r="D77">
+        <v>5.5295694281097254E-3</v>
+      </c>
+      <c r="E77">
+        <v>0.56215010397608767</v>
+      </c>
+      <c r="F77">
+        <v>7.6932880619483149E-3</v>
+      </c>
+      <c r="G77">
+        <v>0.8115400335740135</v>
+      </c>
+      <c r="H77">
+        <v>0.52440211888875143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>689</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>689</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>373</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>6.7012393605578077E-2</v>
+      </c>
+      <c r="D80">
+        <v>2.2395238911037601E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>0.87706098902991469</v>
+      </c>
+      <c r="H80">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>373</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>1.7729486737932481E-3</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.5</v>
+      </c>
+      <c r="F81">
+        <v>0.29917418338675122</v>
+      </c>
+      <c r="G81">
+        <v>0.91566788911237207</v>
+      </c>
+      <c r="H81">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>1.5187791415623259E-3</v>
+      </c>
+      <c r="D82">
+        <v>0.17329638429456259</v>
+      </c>
+      <c r="E82">
+        <v>0.5</v>
+      </c>
+      <c r="F82">
+        <v>51.750856801683362</v>
+      </c>
+      <c r="G82">
+        <v>0.17462196831785409</v>
+      </c>
+      <c r="H82">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>373</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1.7808707205803839E-3</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+      <c r="F83">
+        <v>0.29917418338675122</v>
+      </c>
+      <c r="G83">
+        <v>0.91566788911237207</v>
+      </c>
+      <c r="H83">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>373</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>679</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1.4346743793022341E-2</v>
+      </c>
+      <c r="D86">
+        <v>1.1775016094835189E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.5601902842404537</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0.65303395586786706</v>
+      </c>
+      <c r="H86">
+        <v>0.37306769180456267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>679</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>9.9309246714522192E-4</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.550080560292181</v>
+      </c>
+      <c r="F87">
+        <v>0.10115769169127189</v>
+      </c>
+      <c r="G87">
+        <v>0.21502357785707399</v>
+      </c>
+      <c r="H87">
+        <v>0.44983238081549809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>679</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>2.3982676064095848E-3</v>
+      </c>
+      <c r="D88">
+        <v>0.1203543319236493</v>
+      </c>
+      <c r="E88">
+        <v>0.55261024541343184</v>
+      </c>
+      <c r="F88">
+        <v>6.8962009317045041</v>
+      </c>
+      <c r="G88">
+        <v>0.34060068036457131</v>
+      </c>
+      <c r="H88">
+        <v>0.46540010179428049</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>679</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>1.5999945198617331E-3</v>
+      </c>
+      <c r="D89">
+        <v>1.2407787729572959E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.55718581704722803</v>
+      </c>
+      <c r="F89">
+        <v>3.2952866596187118E-2</v>
+      </c>
+      <c r="G89">
+        <v>0.30056724001270041</v>
+      </c>
+      <c r="H89">
+        <v>0.51365298720294295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>679</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>679</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>679</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1.4220534301385651E-2</v>
+      </c>
+      <c r="D92">
+        <v>1.7800360102563161E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.50128461463088025</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>0.24992521961505099</v>
+      </c>
+      <c r="H92">
+        <v>0.35990170790129772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>679</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>1.010405145040373E-3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.51001466709910681</v>
+      </c>
+      <c r="F93">
+        <v>4.0843771817659393E-2</v>
+      </c>
+      <c r="G93">
+        <v>0.26190264585601641</v>
+      </c>
+      <c r="H93">
+        <v>0.55000177942746542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>679</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>2.3282039456251191E-3</v>
+      </c>
+      <c r="D94">
+        <v>0.1261935110775142</v>
+      </c>
+      <c r="E94">
+        <v>0.52782546643992334</v>
+      </c>
+      <c r="F94">
+        <v>3.0570081423333662</v>
+      </c>
+      <c r="G94">
+        <v>0.49398624700458932</v>
+      </c>
+      <c r="H94">
+        <v>0.44859315939309269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>679</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1.6097603774652251E-3</v>
+      </c>
+      <c r="D95">
+        <v>1.6263611704445059E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.58265622025003472</v>
+      </c>
+      <c r="F95">
+        <v>2.5806357601834279E-2</v>
+      </c>
+      <c r="G95">
+        <v>0.56094538648999615</v>
+      </c>
+      <c r="H95">
+        <v>0.54341726699006676</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>679</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>679</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1460</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1.866681890667609E-2</v>
+      </c>
+      <c r="D98">
+        <v>0.15472567445310861</v>
+      </c>
+      <c r="E98">
+        <v>0.62065484196507092</v>
+      </c>
+      <c r="F98">
+        <v>86.314261822934384</v>
+      </c>
+      <c r="G98">
+        <v>0.17493443996826699</v>
+      </c>
+      <c r="H98">
+        <v>0.33386453928677873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1460</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>1.386788206280402E-3</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0.54908178092099602</v>
+      </c>
+      <c r="F99">
+        <v>2.915819486351845</v>
+      </c>
+      <c r="G99">
+        <v>9.4243277795320934E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.50119405099100245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1460</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1.97655884724743E-3</v>
+      </c>
+      <c r="D100">
+        <v>0.4947889121627726</v>
+      </c>
+      <c r="E100">
+        <v>0.60302324661265772</v>
+      </c>
+      <c r="F100">
+        <v>68.260669367761722</v>
+      </c>
+      <c r="G100">
+        <v>5.0292402132868938E-2</v>
+      </c>
+      <c r="H100">
+        <v>0.5631267319115687</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1460</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1.523986402547584E-3</v>
+      </c>
+      <c r="D101">
+        <v>0.15058607762138029</v>
+      </c>
+      <c r="E101">
+        <v>0.61883052432979158</v>
+      </c>
+      <c r="F101">
+        <v>1.0421913011665069</v>
+      </c>
+      <c r="G101">
+        <v>0.23270787601672999</v>
+      </c>
+      <c r="H101">
+        <v>0.57034678598127897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1460</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1460</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>895</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>8.1111325158013236E-3</v>
+      </c>
+      <c r="D104">
+        <v>0.10137562547470801</v>
+      </c>
+      <c r="E104">
+        <v>0.69127208907427373</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>0.66095508513350465</v>
+      </c>
+      <c r="H104">
+        <v>0.48930600609211788</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>895</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>8.8885095384385856E-4</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0.72542191385047683</v>
+      </c>
+      <c r="F105">
+        <v>0.43570151803781432</v>
+      </c>
+      <c r="G105">
+        <v>0.55614839871205868</v>
+      </c>
+      <c r="H105">
+        <v>0.43440148951290108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>895</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>2.888854344685872E-3</v>
+      </c>
+      <c r="D106">
+        <v>0.17669225901020091</v>
+      </c>
+      <c r="E106">
+        <v>0.6705430213322332</v>
+      </c>
+      <c r="F106">
+        <v>0.61574639926602326</v>
+      </c>
+      <c r="G106">
+        <v>0.37210230305859832</v>
+      </c>
+      <c r="H106">
+        <v>0.572113784800654</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>895</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>3.7999788920084631E-3</v>
+      </c>
+      <c r="D107">
+        <v>2.4706165899745499E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.69593330571093581</v>
+      </c>
+      <c r="F107">
+        <v>0.29962424462409099</v>
+      </c>
+      <c r="G107">
+        <v>0.65386387790122602</v>
+      </c>
+      <c r="H107">
+        <v>0.60192881863506864</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>895</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>895</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>887</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>9.757592127873348E-3</v>
+      </c>
+      <c r="D110">
+        <v>0.15427899516027749</v>
+      </c>
+      <c r="E110">
+        <v>0.5642055435421488</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>0.88711960318943595</v>
+      </c>
+      <c r="H110">
+        <v>0.2136463805800797</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>887</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>1.5384784111609831E-3</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0.51961532625166262</v>
+      </c>
+      <c r="F111">
+        <v>0.1062020214806411</v>
+      </c>
+      <c r="G111">
+        <v>0.34211662680727262</v>
+      </c>
+      <c r="H111">
+        <v>0.33551947230761808</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>887</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>5.3075460287240837E-3</v>
+      </c>
+      <c r="D112">
+        <v>0.1443979772032889</v>
+      </c>
+      <c r="E112">
+        <v>0.5003829565764093</v>
+      </c>
+      <c r="F112">
+        <v>1.8627829663685681E-2</v>
+      </c>
+      <c r="G112">
+        <v>0.51604492277552794</v>
+      </c>
+      <c r="H112">
+        <v>0.36696290003748222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>887</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>1.167073616614708E-2</v>
+      </c>
+      <c r="D113">
+        <v>0.1067094674832996</v>
+      </c>
+      <c r="E113">
+        <v>0.56797496838819095</v>
+      </c>
+      <c r="F113">
+        <v>2.231389495174926E-2</v>
+      </c>
+      <c r="G113">
+        <v>0.93093922651933703</v>
+      </c>
+      <c r="H113">
+        <v>0.32742953229810462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>887</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>887</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>711</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>2.095037036471897E-2</v>
+      </c>
+      <c r="D116">
+        <v>2.0438970691275499E-2</v>
+      </c>
+      <c r="E116">
+        <v>0.65749887539797747</v>
+      </c>
+      <c r="F116">
+        <v>4.2288138581248913E-2</v>
+      </c>
+      <c r="G116">
+        <v>0.5873705000447258</v>
+      </c>
+      <c r="H116">
+        <v>0.38731934060766821</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>711</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>1.8332137001885311E-3</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0.51322939298795656</v>
+      </c>
+      <c r="F117">
+        <v>1.7763302701607891E-2</v>
+      </c>
+      <c r="G117">
+        <v>0.62323383110794695</v>
+      </c>
+      <c r="H117">
+        <v>0.38165242577858849</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>711</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>711</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>9.1111130184597447E-3</v>
+      </c>
+      <c r="D119">
+        <v>1.838800544049158E-2</v>
+      </c>
+      <c r="E119">
+        <v>0.50036176601148186</v>
+      </c>
+      <c r="F119">
+        <v>2.4977800799290989E-2</v>
+      </c>
+      <c r="G119">
+        <v>0.86101599928922423</v>
+      </c>
+      <c r="H119">
+        <v>0.4944314123231251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>711</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>711</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>712</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1.6091378529866539E-2</v>
+      </c>
+      <c r="D122">
+        <v>3.965521777670003E-2</v>
+      </c>
+      <c r="E122">
+        <v>0.51663180339866965</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>0.75670935972977249</v>
+      </c>
+      <c r="H122">
+        <v>0.43521630134800737</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>712</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>1.71108775668674E-3</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0.58454201153622054</v>
+      </c>
+      <c r="F123">
+        <v>3.086588189007642E-2</v>
+      </c>
+      <c r="G123">
+        <v>0.43536274610998649</v>
+      </c>
+      <c r="H123">
+        <v>0.5171899530348314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>712</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>1.513337559170193E-2</v>
+      </c>
+      <c r="D124">
+        <v>6.0824836306570679E-2</v>
+      </c>
+      <c r="E124">
+        <v>0.69857998799570908</v>
+      </c>
+      <c r="F124">
+        <v>6.9161616714259633E-2</v>
+      </c>
+      <c r="G124">
+        <v>0.67423501665682084</v>
+      </c>
+      <c r="H124">
+        <v>0.44803049353460678</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>712</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>4.4500192006429037E-3</v>
+      </c>
+      <c r="D125">
+        <v>1.821974005050921E-2</v>
+      </c>
+      <c r="E125">
+        <v>0.64339646857333421</v>
+      </c>
+      <c r="F125">
+        <v>4.53203490229067E-2</v>
+      </c>
+      <c r="G125">
+        <v>0.55459451543340355</v>
+      </c>
+      <c r="H125">
+        <v>0.50574945275858585</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>712</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>712</v>
+      </c>
+      <c r="B127" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2634,10 +5801,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CF1288-85BD-41CF-8B2F-6CE4B547F321}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,11 +6885,1697 @@
         <v>0.54334479744285968</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>464</v>
       </c>
       <c r="B49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>519</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1.3713105728751731E-2</v>
+      </c>
+      <c r="D50">
+        <v>6.3401344178714084E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.61480732266608529</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0.53726664409994429</v>
+      </c>
+      <c r="H50">
+        <v>0.35870327860233681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>519</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>4.5131946864881006E-3</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.58210895151589426</v>
+      </c>
+      <c r="F51">
+        <v>2.6758324553440138</v>
+      </c>
+      <c r="G51">
+        <v>0.30803882966642521</v>
+      </c>
+      <c r="H51">
+        <v>0.83703591820123613</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>519</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1.208173287542243E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.16875026759924089</v>
+      </c>
+      <c r="E52">
+        <v>0.58791967653248745</v>
+      </c>
+      <c r="F52">
+        <v>1.9458982763116359</v>
+      </c>
+      <c r="G52">
+        <v>9.7109521175129887E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.45975263952192502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>519</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>6.2763032160307233E-3</v>
+      </c>
+      <c r="D53">
+        <v>3.2615833225987823E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.59967922819353503</v>
+      </c>
+      <c r="F53">
+        <v>3.5548984802926489</v>
+      </c>
+      <c r="G53">
+        <v>0.2236173121267587</v>
+      </c>
+      <c r="H53">
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>519</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>5.9042993344758689E-2</v>
+      </c>
+      <c r="D54">
+        <v>3.5778995762400317E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.60065854934767571</v>
+      </c>
+      <c r="F54">
+        <v>1.6788895858363959</v>
+      </c>
+      <c r="G54">
+        <v>0.40017875512102491</v>
+      </c>
+      <c r="H54">
+        <v>0.63826871158355825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>519</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>523</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1.3833046E-2</v>
+      </c>
+      <c r="D56">
+        <v>9.2573411999999994E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>0.47459522999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>523</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1.5900040000000001E-2</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.61156055200000004</v>
+      </c>
+      <c r="F57">
+        <v>-99999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.70231670400000001</v>
+      </c>
+      <c r="H57">
+        <v>0.94999999300000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>523</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>523</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>2.2179258E-2</v>
+      </c>
+      <c r="D59">
+        <v>9.4801889E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.67484456900000001</v>
+      </c>
+      <c r="F59">
+        <v>-99999999999</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>523</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>1.3999819999999999E-3</v>
+      </c>
+      <c r="D60">
+        <v>9.0125407000000005E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.72258281899999999</v>
+      </c>
+      <c r="F60">
+        <v>-99999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.70231670400000001</v>
+      </c>
+      <c r="H60">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>523</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>494</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1.305862573476938E-2</v>
+      </c>
+      <c r="D62">
+        <v>4.9021417728057452E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>0.58755336029769234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>494</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3.0244570512038011E-3</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.68236252340825532</v>
+      </c>
+      <c r="F63">
+        <v>0.53537717562346632</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>494</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>5.4999901698185851E-3</v>
+      </c>
+      <c r="D64">
+        <v>0.13124014275923329</v>
+      </c>
+      <c r="E64">
+        <v>0.75</v>
+      </c>
+      <c r="F64">
+        <v>0.76729973701189913</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>494</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>3.8846107629629278E-3</v>
+      </c>
+      <c r="D65">
+        <v>1.850160247248361E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.74521766056323813</v>
+      </c>
+      <c r="F65">
+        <v>0.59868546936750833</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>494</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>2.7954019032991849E-2</v>
+      </c>
+      <c r="D66">
+        <v>1.9733127559535761E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.75</v>
+      </c>
+      <c r="F66">
+        <v>0.29882301856430582</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>494</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>686</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1.5905758119978991E-2</v>
+      </c>
+      <c r="D68">
+        <v>2.3892252192373849E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.50035603838469145</v>
+      </c>
+      <c r="F68">
+        <v>8.1662088953600484E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.43165239204839578</v>
+      </c>
+      <c r="H68">
+        <v>0.46671321013731598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>686</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>9.5337156979542863E-3</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.5107279854351312</v>
+      </c>
+      <c r="F69">
+        <v>1.1273820530444789</v>
+      </c>
+      <c r="G69">
+        <v>0.39087312267024232</v>
+      </c>
+      <c r="H69">
+        <v>0.88679244537496782</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>686</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>686</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>1.2250077049687219E-2</v>
+      </c>
+      <c r="D71">
+        <v>2.4846749676493401E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.51303647950578213</v>
+      </c>
+      <c r="F71">
+        <v>1.4845383964835051</v>
+      </c>
+      <c r="G71">
+        <v>0.40796513593209971</v>
+      </c>
+      <c r="H71">
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>686</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>0.76392071202116196</v>
+      </c>
+      <c r="D72">
+        <v>2.0423981614375621E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.51856492027334844</v>
+      </c>
+      <c r="F72">
+        <v>0.15639076435119151</v>
+      </c>
+      <c r="G72">
+        <v>0.57758446128444352</v>
+      </c>
+      <c r="H72">
+        <v>0.68527779887671081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>686</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>689</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1.582601983496483E-2</v>
+      </c>
+      <c r="D74">
+        <v>2.34848990866343E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.51411585682920236</v>
+      </c>
+      <c r="F74">
+        <v>1.498928926628017</v>
+      </c>
+      <c r="G74">
+        <v>0.51588012869675381</v>
+      </c>
+      <c r="H74">
+        <v>0.44991912647644999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>689</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>6.0957720939149246E-3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.50043155180312748</v>
+      </c>
+      <c r="F75">
+        <v>3.74140901182674</v>
+      </c>
+      <c r="G75">
+        <v>0.27805597007600591</v>
+      </c>
+      <c r="H75">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>689</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>689</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>7.3722930664711812E-3</v>
+      </c>
+      <c r="D77">
+        <v>1.453662400674622E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.51731464345368683</v>
+      </c>
+      <c r="F77">
+        <v>4.7912310074649298</v>
+      </c>
+      <c r="G77">
+        <v>0.32131594512714362</v>
+      </c>
+      <c r="H77">
+        <v>0.98936169841227695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>689</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>1.0817667093682799</v>
+      </c>
+      <c r="D78">
+        <v>1.1933676485844031E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.52093545751633985</v>
+      </c>
+      <c r="F78">
+        <v>0.92125465950737229</v>
+      </c>
+      <c r="G78">
+        <v>0.5668398458836631</v>
+      </c>
+      <c r="H78">
+        <v>0.80259236474222684</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>689</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>373</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1.264218602861677E-2</v>
+      </c>
+      <c r="D80">
+        <v>5.3510049539149569E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>0.81825412785616514</v>
+      </c>
+      <c r="H80">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>373</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>6.7417844311221619E-4</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.5</v>
+      </c>
+      <c r="F81">
+        <v>236.6365370771812</v>
+      </c>
+      <c r="G81">
+        <v>0.67293231326922087</v>
+      </c>
+      <c r="H81">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>4.7508191276382618E-3</v>
+      </c>
+      <c r="D82">
+        <v>0.38452463777983492</v>
+      </c>
+      <c r="E82">
+        <v>0.5</v>
+      </c>
+      <c r="F82">
+        <v>575.72371909007381</v>
+      </c>
+      <c r="G82">
+        <v>0.71943958789074691</v>
+      </c>
+      <c r="H82">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>373</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>7.0476374783358733E-4</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+      <c r="F83">
+        <v>236.6365370771812</v>
+      </c>
+      <c r="G83">
+        <v>0.67293231326922087</v>
+      </c>
+      <c r="H83">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>8.2842984435322523E-2</v>
+      </c>
+      <c r="D84">
+        <v>2.2098736324160779E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.5</v>
+      </c>
+      <c r="F84">
+        <v>236.63653739794421</v>
+      </c>
+      <c r="G84">
+        <v>0.67620571369199567</v>
+      </c>
+      <c r="H84">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>373</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>679</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1.3574404832793451E-2</v>
+      </c>
+      <c r="D86">
+        <v>8.7519535893675546E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.60547990901223403</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0.39697495895995172</v>
+      </c>
+      <c r="H86">
+        <v>0.33736453031414809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>679</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>2.2048729221995282E-3</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.5239094716532855</v>
+      </c>
+      <c r="F87">
+        <v>8.2640126782485606</v>
+      </c>
+      <c r="G87">
+        <v>0.1275408270804553</v>
+      </c>
+      <c r="H87">
+        <v>0.59334008123659687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>679</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>1.0778210802776061E-2</v>
+      </c>
+      <c r="D88">
+        <v>0.28841691969805411</v>
+      </c>
+      <c r="E88">
+        <v>0.53906078666025947</v>
+      </c>
+      <c r="F88">
+        <v>16.50289652362601</v>
+      </c>
+      <c r="G88">
+        <v>0.1825050829279482</v>
+      </c>
+      <c r="H88">
+        <v>0.42741512973863077</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>679</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>2.7902498477842749E-3</v>
+      </c>
+      <c r="D89">
+        <v>8.2216906863796027E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.53259927666142237</v>
+      </c>
+      <c r="F89">
+        <v>7.4244963565801241</v>
+      </c>
+      <c r="G89">
+        <v>0.15543793564743791</v>
+      </c>
+      <c r="H89">
+        <v>0.64731714315092748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>679</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>3.02214808580352E-2</v>
+      </c>
+      <c r="D90">
+        <v>6.1963850697925017E-2</v>
+      </c>
+      <c r="E90">
+        <v>0.53345710744334252</v>
+      </c>
+      <c r="F90">
+        <v>8.0670139571207216</v>
+      </c>
+      <c r="G90">
+        <v>0.34910789979501639</v>
+      </c>
+      <c r="H90">
+        <v>0.51123271943913795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>679</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>679</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1.382083078710044E-2</v>
+      </c>
+      <c r="D92">
+        <v>9.3396285122278391E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.53455718445158995</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>0.54267160360330813</v>
+      </c>
+      <c r="H92">
+        <v>0.32379103769361278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>679</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>2.248790787487495E-3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.50167402200292655</v>
+      </c>
+      <c r="F93">
+        <v>9.2007064671074339</v>
+      </c>
+      <c r="G93">
+        <v>0.18298566080781661</v>
+      </c>
+      <c r="H93">
+        <v>0.49365521667808998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>679</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>1.058076998082603E-2</v>
+      </c>
+      <c r="D94">
+        <v>0.28228999665699028</v>
+      </c>
+      <c r="E94">
+        <v>0.55282072026045181</v>
+      </c>
+      <c r="F94">
+        <v>14.39403682003045</v>
+      </c>
+      <c r="G94">
+        <v>4.0363892811474351E-2</v>
+      </c>
+      <c r="H94">
+        <v>0.37354945809339613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>679</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>2.8130554571384339E-3</v>
+      </c>
+      <c r="D95">
+        <v>7.6549968974521695E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.53915086845256643</v>
+      </c>
+      <c r="F95">
+        <v>9.378254302122329</v>
+      </c>
+      <c r="G95">
+        <v>0.22735145366748791</v>
+      </c>
+      <c r="H95">
+        <v>0.50790655424224951</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>679</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>3.1584954843288507E-2</v>
+      </c>
+      <c r="D96">
+        <v>5.3996384220052207E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.5036754397418759</v>
+      </c>
+      <c r="F96">
+        <v>7.4034266108292321</v>
+      </c>
+      <c r="G96">
+        <v>0.1909629503978626</v>
+      </c>
+      <c r="H96">
+        <v>0.46726637666029908</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>679</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1460</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1.3824807697871949E-2</v>
+      </c>
+      <c r="D98">
+        <v>0.19036570513747481</v>
+      </c>
+      <c r="E98">
+        <v>0.61068253725141664</v>
+      </c>
+      <c r="F98">
+        <v>575.00356017886565</v>
+      </c>
+      <c r="G98">
+        <v>0.1755194533644949</v>
+      </c>
+      <c r="H98">
+        <v>0.33596802415537202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1460</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>1.18301881934112E-3</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0.51157904604212523</v>
+      </c>
+      <c r="F99">
+        <v>62.774567124528367</v>
+      </c>
+      <c r="G99">
+        <v>5.195925160723542E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.45705687161038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1460</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1.0331970340800739E-2</v>
+      </c>
+      <c r="D100">
+        <v>0.49745960673206818</v>
+      </c>
+      <c r="E100">
+        <v>0.58950159837256655</v>
+      </c>
+      <c r="F100">
+        <v>95.647437314291366</v>
+      </c>
+      <c r="G100">
+        <v>0.1581134207813488</v>
+      </c>
+      <c r="H100">
+        <v>0.63142636154350595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1460</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1.31819135737869E-3</v>
+      </c>
+      <c r="D101">
+        <v>0.1605188899345735</v>
+      </c>
+      <c r="E101">
+        <v>0.50438189759413532</v>
+      </c>
+      <c r="F101">
+        <v>60.954407909484416</v>
+      </c>
+      <c r="G101">
+        <v>4.3402108473953191E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.42270031867018298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1460</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>1.5917217731475829E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.12882156200430431</v>
+      </c>
+      <c r="E102">
+        <v>0.55999902473195173</v>
+      </c>
+      <c r="F102">
+        <v>15.91586188762809</v>
+      </c>
+      <c r="G102">
+        <v>6.6369723990261267E-2</v>
+      </c>
+      <c r="H102">
+        <v>0.50391910926637307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1460</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>895</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1.300182872348362E-2</v>
+      </c>
+      <c r="D104">
+        <v>0.17745446245963969</v>
+      </c>
+      <c r="E104">
+        <v>0.69902687054069212</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>0.48958625507173559</v>
+      </c>
+      <c r="H104">
+        <v>0.48883350379536039</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>895</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>6.9555282592773434E-3</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0.63425612300458911</v>
+      </c>
+      <c r="F105">
+        <v>4.3296815685717931</v>
+      </c>
+      <c r="G105">
+        <v>0.46876685274750901</v>
+      </c>
+      <c r="H105">
+        <v>0.52485407148563101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>895</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>1.1567046907213E-2</v>
+      </c>
+      <c r="D106">
+        <v>0.23644192320025639</v>
+      </c>
+      <c r="E106">
+        <v>0.67554813199310182</v>
+      </c>
+      <c r="F106">
+        <v>3.3259821426699432</v>
+      </c>
+      <c r="G106">
+        <v>0.32689531881638301</v>
+      </c>
+      <c r="H106">
+        <v>0.46979726601668781</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>895</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>9.8853323194715709E-3</v>
+      </c>
+      <c r="D107">
+        <v>0.12871208914542251</v>
+      </c>
+      <c r="E107">
+        <v>0.58460611606858293</v>
+      </c>
+      <c r="F107">
+        <v>4.6504758702458204</v>
+      </c>
+      <c r="G107">
+        <v>0.56752379335863412</v>
+      </c>
+      <c r="H107">
+        <v>0.62983714958947856</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>895</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>2.7555412716335722E-3</v>
+      </c>
+      <c r="D108">
+        <v>0.11479442697437101</v>
+      </c>
+      <c r="E108">
+        <v>0.70434256998086653</v>
+      </c>
+      <c r="F108">
+        <v>2.9691240456793282</v>
+      </c>
+      <c r="G108">
+        <v>0.47484311914735611</v>
+      </c>
+      <c r="H108">
+        <v>0.42564282850481489</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>895</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>887</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1.3922893084012551E-2</v>
+      </c>
+      <c r="D110">
+        <v>0.14167878518038571</v>
+      </c>
+      <c r="E110">
+        <v>0.55780674312339762</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>0.82789072830616584</v>
+      </c>
+      <c r="H110">
+        <v>0.2345147572069092</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>887</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>2.23846618945782E-2</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0.50990691546878131</v>
+      </c>
+      <c r="F111">
+        <v>0.23277677216309561</v>
+      </c>
+      <c r="G111">
+        <v>0.61353614523619471</v>
+      </c>
+      <c r="H111">
+        <v>0.43694771046025271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>887</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>1.3230635569645811E-2</v>
+      </c>
+      <c r="D112">
+        <v>0.24714553608784379</v>
+      </c>
+      <c r="E112">
+        <v>0.57638352902960954</v>
+      </c>
+      <c r="F112">
+        <v>0.2528186766127854</v>
+      </c>
+      <c r="G112">
+        <v>0.44974658023409148</v>
+      </c>
+      <c r="H112">
+        <v>0.38429823091524201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>887</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>3.2615386522733249E-2</v>
+      </c>
+      <c r="D113">
+        <v>0.20429732767232769</v>
+      </c>
+      <c r="E113">
+        <v>0.52274573055404772</v>
+      </c>
+      <c r="F113">
+        <v>0.26598056276517479</v>
+      </c>
+      <c r="G113">
+        <v>0.83708964286048149</v>
+      </c>
+      <c r="H113">
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>887</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>1.0000008803147541E-3</v>
+      </c>
+      <c r="D114">
+        <v>0.1176745325536178</v>
+      </c>
+      <c r="E114">
+        <v>0.55478852500362197</v>
+      </c>
+      <c r="F114">
+        <v>0.23014119208874459</v>
+      </c>
+      <c r="G114">
+        <v>0.58108826035019967</v>
+      </c>
+      <c r="H114">
+        <v>0.3775281047581141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>887</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>711</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1.3888729943169489E-2</v>
+      </c>
+      <c r="D116">
+        <v>4.7256244988612937E-2</v>
+      </c>
+      <c r="E116">
+        <v>0.58505511900411711</v>
+      </c>
+      <c r="F116">
+        <v>0.50559776654548472</v>
+      </c>
+      <c r="G116">
+        <v>0.66454430694452138</v>
+      </c>
+      <c r="H116">
+        <v>0.26173231457505758</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>711</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>1.755526330735948E-2</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0.50159843766310586</v>
+      </c>
+      <c r="F117">
+        <v>6.8613113566646664</v>
+      </c>
+      <c r="G117">
+        <v>0.3677781483025408</v>
+      </c>
+      <c r="H117">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>711</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>711</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>2.5333563486735031E-2</v>
+      </c>
+      <c r="D119">
+        <v>5.9871582892416203E-2</v>
+      </c>
+      <c r="E119">
+        <v>0.51909716154916086</v>
+      </c>
+      <c r="F119">
+        <v>9.0726172007748058</v>
+      </c>
+      <c r="G119">
+        <v>0.76577532349751798</v>
+      </c>
+      <c r="H119">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>711</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>5.4277764426337347E-2</v>
+      </c>
+      <c r="D120">
+        <v>5.0037918885739441E-2</v>
+      </c>
+      <c r="E120">
+        <v>0.52741935483870972</v>
+      </c>
+      <c r="F120">
+        <v>0.41947882158493288</v>
+      </c>
+      <c r="G120">
+        <v>0.63194555202719727</v>
+      </c>
+      <c r="H120">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>711</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>712</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1.4714050292968749E-2</v>
+      </c>
+      <c r="D122">
+        <v>8.2747259638663376E-2</v>
+      </c>
+      <c r="E122">
+        <v>0.52607688257910468</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>0.6497545729087133</v>
+      </c>
+      <c r="H122">
+        <v>0.45849154603017878</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>712</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>8.0222341749403205E-3</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0.52079372949253122</v>
+      </c>
+      <c r="F123">
+        <v>2.1117786869412321</v>
+      </c>
+      <c r="G123">
+        <v>0.3144426794674558</v>
+      </c>
+      <c r="H123">
+        <v>0.72667607548388891</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>712</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>712</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>1.075559192233615E-2</v>
+      </c>
+      <c r="D125">
+        <v>9.2720442520442509E-2</v>
+      </c>
+      <c r="E125">
+        <v>0.50688562775354884</v>
+      </c>
+      <c r="F125">
+        <v>2.2719295190517408</v>
+      </c>
+      <c r="G125">
+        <v>0.54557033828540968</v>
+      </c>
+      <c r="H125">
+        <v>0.69769347298987239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>712</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>0.13324270248413089</v>
+      </c>
+      <c r="D126">
+        <v>8.1696957690611707E-2</v>
+      </c>
+      <c r="E126">
+        <v>0.52452808861761047</v>
+      </c>
+      <c r="F126">
+        <v>0.59186865244585374</v>
+      </c>
+      <c r="G126">
+        <v>0.65205493375028556</v>
+      </c>
+      <c r="H126">
+        <v>0.79383747471402843</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>712</v>
+      </c>
+      <c r="B127" t="s">
         <v>7</v>
       </c>
     </row>

--- a/fathkouhi_xai-swarm/results.xlsx
+++ b/fathkouhi_xai-swarm/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fathkouhi_xai-swarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555D951C-3F18-4FB7-9A32-5364A860F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796A1349-B718-4D49-988B-01FD2CD7ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="3" xr2:uid="{8543CA0F-31BE-4B22-93CB-E2C67E1EB9D2}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{8543CA0F-31BE-4B22-93CB-E2C67E1EB9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="42">
   <si>
     <t>dataset_id</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>chscase_geyser1712</t>
+  </si>
+  <si>
+    <t>vineyard_192</t>
+  </si>
+  <si>
+    <t>RAM_price</t>
+  </si>
+  <si>
+    <t>ELE-1</t>
   </si>
 </sst>
 </file>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE07F1E-AE6A-4E39-9669-43ADBC225DFC}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +892,48 @@
         <v>222</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>40601</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>42361</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -891,10 +942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255E762-451E-4A11-8C2C-4680A6C7FBE9}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:H127"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,6 +3399,348 @@
         <v>7</v>
       </c>
     </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>192</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>8.19750265641646E-3</v>
+      </c>
+      <c r="D128">
+        <v>3.9659596328419172E-2</v>
+      </c>
+      <c r="E128">
+        <v>0.57046306438120109</v>
+      </c>
+      <c r="F128">
+        <v>4.6197490927608314E-3</v>
+      </c>
+      <c r="G128">
+        <v>0.86811091788121431</v>
+      </c>
+      <c r="H128">
+        <v>8.1733131581762514E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>192</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2.0011771808971061E-3</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0.50295054530815775</v>
+      </c>
+      <c r="F129">
+        <v>8.0570694210671756E-2</v>
+      </c>
+      <c r="G129">
+        <v>0.42585521173178809</v>
+      </c>
+      <c r="H129">
+        <v>0.13028150289674639</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>192</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>3.3024462786587799E-2</v>
+      </c>
+      <c r="D130">
+        <v>3.6678844274562493E-2</v>
+      </c>
+      <c r="E130">
+        <v>0.53553062589333889</v>
+      </c>
+      <c r="F130">
+        <v>7.4160969645532806E-3</v>
+      </c>
+      <c r="G130">
+        <v>0.97932826097979864</v>
+      </c>
+      <c r="H130">
+        <v>0.15095703366992161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>192</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>1.470669833096591E-2</v>
+      </c>
+      <c r="D131">
+        <v>4.3937412142891208E-2</v>
+      </c>
+      <c r="E131">
+        <v>0.54748799185231434</v>
+      </c>
+      <c r="F131">
+        <v>0.1137986113285636</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>7.8763665852407669E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>192</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>192</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>40601</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>4.50882982851854E-3</v>
+      </c>
+      <c r="D134">
+        <v>2.6087027010642541E-2</v>
+      </c>
+      <c r="E134">
+        <v>0.5</v>
+      </c>
+      <c r="F134">
+        <v>0.36732269062658829</v>
+      </c>
+      <c r="G134">
+        <v>0.94293239683933283</v>
+      </c>
+      <c r="H134">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>40601</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>6.4185839980395874E-4</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0.5</v>
+      </c>
+      <c r="F135">
+        <v>4.5375048192954903E-3</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>40601</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>5.2694491486051194E-3</v>
+      </c>
+      <c r="D136">
+        <v>2.866970108522773E-2</v>
+      </c>
+      <c r="E136">
+        <v>0.5</v>
+      </c>
+      <c r="F136">
+        <v>9.8181091805515739E-3</v>
+      </c>
+      <c r="G136">
+        <v>0.101763907734057</v>
+      </c>
+      <c r="H136">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>40601</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>7.0066238517191867E-4</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0.5</v>
+      </c>
+      <c r="F137">
+        <v>4.5375048192954903E-3</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>40601</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>40601</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>42361</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>8.035768162120472E-3</v>
+      </c>
+      <c r="D140">
+        <v>4.0077335049913164E-3</v>
+      </c>
+      <c r="E140">
+        <v>0.56023525812754871</v>
+      </c>
+      <c r="F140">
+        <v>3.4680449019066452E-2</v>
+      </c>
+      <c r="G140">
+        <v>0.90842249172888634</v>
+      </c>
+      <c r="H140">
+        <v>0.5254546633672228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>42361</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>8.6922115749782987E-4</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0.52906928005949239</v>
+      </c>
+      <c r="F141">
+        <v>1.078883063131603E-2</v>
+      </c>
+      <c r="G141">
+        <v>0.70193272666951234</v>
+      </c>
+      <c r="H141">
+        <v>0.40792486702924258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>42361</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>42361</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>2.2685551884198429E-3</v>
+      </c>
+      <c r="D143">
+        <v>4.1413702449888314E-3</v>
+      </c>
+      <c r="E143">
+        <v>0.58056538878767483</v>
+      </c>
+      <c r="F143">
+        <v>1.3671593107710619E-2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0.37752961582669392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>42361</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>42361</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3355,10 +3748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270676A6-7F2D-4D8C-9E0F-5961171339EE}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:H127"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5794,6 +6187,330 @@
         <v>7</v>
       </c>
     </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>192</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1.0345068844881931E-2</v>
+      </c>
+      <c r="D128">
+        <v>2.56879796504908E-2</v>
+      </c>
+      <c r="E128">
+        <v>0.51833356877580816</v>
+      </c>
+      <c r="F128">
+        <v>1.6009346700977781E-3</v>
+      </c>
+      <c r="G128">
+        <v>0.76162254838280741</v>
+      </c>
+      <c r="H128">
+        <v>0.1111986401024455</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>192</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2.0000067624178801E-3</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0.58337225082878974</v>
+      </c>
+      <c r="F129">
+        <v>2.418585454601782E-3</v>
+      </c>
+      <c r="G129">
+        <v>0.20145772309132851</v>
+      </c>
+      <c r="H129">
+        <v>0.16432750440806479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>192</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>1.1454322121360079E-2</v>
+      </c>
+      <c r="D130">
+        <v>2.7747967958605669E-2</v>
+      </c>
+      <c r="E130">
+        <v>0.50082649465668139</v>
+      </c>
+      <c r="F130">
+        <v>3.07183267340835E-3</v>
+      </c>
+      <c r="G130">
+        <v>0.78754543968936497</v>
+      </c>
+      <c r="H130">
+        <v>0.16855378258392709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>192</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>1.3488357717340639E-2</v>
+      </c>
+      <c r="D131">
+        <v>5.135861837225917E-2</v>
+      </c>
+      <c r="E131">
+        <v>0.50281023574687211</v>
+      </c>
+      <c r="F131">
+        <v>3.3435967503089932E-3</v>
+      </c>
+      <c r="G131">
+        <v>0.38492413549753002</v>
+      </c>
+      <c r="H131">
+        <v>0.17886331117048371</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>192</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>192</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>40601</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>9.1343918843055844E-2</v>
+      </c>
+      <c r="D134">
+        <v>2.4996539283547441E-2</v>
+      </c>
+      <c r="E134">
+        <v>0.5</v>
+      </c>
+      <c r="F134">
+        <v>2.8025662358531982E-2</v>
+      </c>
+      <c r="G134">
+        <v>0.36910367946364447</v>
+      </c>
+      <c r="H134">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>40601</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>1.712702993136733E-3</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0.5</v>
+      </c>
+      <c r="F135">
+        <v>7.2433113059526466E-3</v>
+      </c>
+      <c r="G135">
+        <v>0.33661904381834151</v>
+      </c>
+      <c r="H135">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>40601</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>40601</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>1.7377654118324391E-3</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0.5</v>
+      </c>
+      <c r="F137">
+        <v>7.2433113059526466E-3</v>
+      </c>
+      <c r="G137">
+        <v>0.33661904381834151</v>
+      </c>
+      <c r="H137">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>40601</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>40601</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>42361</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>0.35854188601175951</v>
+      </c>
+      <c r="D140">
+        <v>3.5048916935377962E-3</v>
+      </c>
+      <c r="E140">
+        <v>0.61445468888594923</v>
+      </c>
+      <c r="F140">
+        <v>8.3347698723878205E-3</v>
+      </c>
+      <c r="G140">
+        <v>0.42016274194989622</v>
+      </c>
+      <c r="H140">
+        <v>0.43066788553552748</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>42361</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>7.9321909432459366E-3</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0.55066980526465503</v>
+      </c>
+      <c r="F141">
+        <v>7.4043977505843682E-3</v>
+      </c>
+      <c r="G141">
+        <v>0.499844213039429</v>
+      </c>
+      <c r="H141">
+        <v>0.39440365290336382</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>42361</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>42361</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>9.1880042143542354E-3</v>
+      </c>
+      <c r="D143">
+        <v>4.6959602791731394E-3</v>
+      </c>
+      <c r="E143">
+        <v>0.56580950281548714</v>
+      </c>
+      <c r="F143">
+        <v>8.2440338368365926E-3</v>
+      </c>
+      <c r="G143">
+        <v>0.72301883028212333</v>
+      </c>
+      <c r="H143">
+        <v>0.43445788053532819</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>42361</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>42361</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5801,10 +6518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CF1288-85BD-41CF-8B2F-6CE4B547F321}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8579,6 +9296,384 @@
         <v>7</v>
       </c>
     </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>192</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1.5171831304376779E-2</v>
+      </c>
+      <c r="D128">
+        <v>5.5220322240310662E-2</v>
+      </c>
+      <c r="E128">
+        <v>0.65635413873992077</v>
+      </c>
+      <c r="F128">
+        <v>8.5912753336317482E-2</v>
+      </c>
+      <c r="G128">
+        <v>0.38257913584000702</v>
+      </c>
+      <c r="H128">
+        <v>6.5637723612451238E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>192</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2.667197314175692E-2</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0.50202429149797567</v>
+      </c>
+      <c r="F129">
+        <v>1.3357107010588321</v>
+      </c>
+      <c r="G129">
+        <v>0.124551334282443</v>
+      </c>
+      <c r="H129">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>192</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>2.1330248225818981E-2</v>
+      </c>
+      <c r="D130">
+        <v>0.19020523415977961</v>
+      </c>
+      <c r="E130">
+        <v>0.54787860177081726</v>
+      </c>
+      <c r="F130">
+        <v>0.30890913238524659</v>
+      </c>
+      <c r="G130">
+        <v>0.53119510410657989</v>
+      </c>
+      <c r="H130">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>192</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>3.9179866964166823E-2</v>
+      </c>
+      <c r="D131">
+        <v>0.1070247933884298</v>
+      </c>
+      <c r="E131">
+        <v>0.5034983060833701</v>
+      </c>
+      <c r="F131">
+        <v>1.528145412703537</v>
+      </c>
+      <c r="G131">
+        <v>0.85411555171548592</v>
+      </c>
+      <c r="H131">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>192</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>6.6585107283158732E-3</v>
+      </c>
+      <c r="D132">
+        <v>5.5578512523230927E-2</v>
+      </c>
+      <c r="E132">
+        <v>0.63502673796791442</v>
+      </c>
+      <c r="F132">
+        <v>0.32216408329936758</v>
+      </c>
+      <c r="G132">
+        <v>0.59329746708210862</v>
+      </c>
+      <c r="H132">
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>192</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>40601</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1.248511983387506E-2</v>
+      </c>
+      <c r="D134">
+        <v>2.9701430335975929E-2</v>
+      </c>
+      <c r="E134">
+        <v>0.5</v>
+      </c>
+      <c r="F134">
+        <v>5.35936847564049E-2</v>
+      </c>
+      <c r="G134">
+        <v>0.21808214001994969</v>
+      </c>
+      <c r="H134">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>40601</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>3.701078357981212E-3</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0.5</v>
+      </c>
+      <c r="F135">
+        <v>0.65535522127016665</v>
+      </c>
+      <c r="G135">
+        <v>0.21004201260420149</v>
+      </c>
+      <c r="H135">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>40601</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>40601</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>3.704640402722714E-3</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0.5</v>
+      </c>
+      <c r="F137">
+        <v>0.65535522127016665</v>
+      </c>
+      <c r="G137">
+        <v>0.21004201260420149</v>
+      </c>
+      <c r="H137">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>40601</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>0.62572736170754506</v>
+      </c>
+      <c r="D138">
+        <v>2.910447761194028E-2</v>
+      </c>
+      <c r="E138">
+        <v>0.5</v>
+      </c>
+      <c r="F138">
+        <v>0.655355206621836</v>
+      </c>
+      <c r="G138">
+        <v>0.21004201260420149</v>
+      </c>
+      <c r="H138">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>40601</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>42361</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1.850268575880263E-2</v>
+      </c>
+      <c r="D140">
+        <v>1.202751063049441E-2</v>
+      </c>
+      <c r="E140">
+        <v>0.54336892352017041</v>
+      </c>
+      <c r="F140">
+        <v>8.043877559421711E-2</v>
+      </c>
+      <c r="G140">
+        <v>0.1892463821794948</v>
+      </c>
+      <c r="H140">
+        <v>0.90323186258435217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>42361</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>9.5653509852862122E-3</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0.50120630184727477</v>
+      </c>
+      <c r="F141">
+        <v>3.6555241138172549</v>
+      </c>
+      <c r="G141">
+        <v>0.25668692875514593</v>
+      </c>
+      <c r="H141">
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>42361</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>42361</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>1.25364920105597E-2</v>
+      </c>
+      <c r="D143">
+        <v>1.6932011310799161E-2</v>
+      </c>
+      <c r="E143">
+        <v>0.50017977618443243</v>
+      </c>
+      <c r="F143">
+        <v>5.8881828247967682</v>
+      </c>
+      <c r="G143">
+        <v>0.3960936474206902</v>
+      </c>
+      <c r="H143">
+        <v>0.92929292929292928</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>42361</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>3.5693928641502302</v>
+      </c>
+      <c r="D144">
+        <v>9.4521222625856497E-3</v>
+      </c>
+      <c r="E144">
+        <v>0.51284013605442169</v>
+      </c>
+      <c r="F144">
+        <v>1.10049780819675</v>
+      </c>
+      <c r="G144">
+        <v>0.43519486013066122</v>
+      </c>
+      <c r="H144">
+        <v>0.95117845117845112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>42361</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fathkouhi_xai-swarm/results.xlsx
+++ b/fathkouhi_xai-swarm/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fathkouhi_xai-swarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796A1349-B718-4D49-988B-01FD2CD7ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125F1A7-3C00-448F-B387-FB17532EDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{8543CA0F-31BE-4B22-93CB-E2C67E1EB9D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8543CA0F-31BE-4B22-93CB-E2C67E1EB9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="44">
   <si>
     <t>dataset_id</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>ELE-1</t>
+  </si>
+  <si>
+    <t>olindda_outliers</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -570,21 +576,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE07F1E-AE6A-4E39-9669-43ADBC225DFC}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>44287</v>
       </c>
@@ -612,7 +618,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>512</v>
       </c>
@@ -626,7 +632,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>61</v>
       </c>
@@ -640,7 +646,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>924</v>
       </c>
@@ -654,7 +660,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>44221</v>
       </c>
@@ -668,7 +674,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45617</v>
       </c>
@@ -682,7 +688,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>544</v>
       </c>
@@ -696,7 +702,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>464</v>
       </c>
@@ -710,7 +716,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>523</v>
       </c>
@@ -724,7 +730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>519</v>
       </c>
@@ -738,7 +744,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>494</v>
       </c>
@@ -752,7 +758,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>686</v>
       </c>
@@ -766,7 +772,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>689</v>
       </c>
@@ -780,7 +786,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>373</v>
       </c>
@@ -794,7 +800,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>679</v>
       </c>
@@ -808,7 +814,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>679</v>
       </c>
@@ -822,7 +828,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1460</v>
       </c>
@@ -836,7 +842,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>895</v>
       </c>
@@ -850,7 +856,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>887</v>
       </c>
@@ -864,7 +870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>711</v>
       </c>
@@ -878,7 +884,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>712</v>
       </c>
@@ -892,7 +898,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>192</v>
       </c>
@@ -906,7 +912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>40601</v>
       </c>
@@ -920,7 +926,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>42361</v>
       </c>
@@ -932,6 +938,34 @@
       </c>
       <c r="D25">
         <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>42793</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>42110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -942,23 +976,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255E762-451E-4A11-8C2C-4680A6C7FBE9}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:H145"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>512</v>
       </c>
@@ -1010,7 +1044,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>512</v>
       </c>
@@ -1036,7 +1070,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>512</v>
       </c>
@@ -1062,7 +1096,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>512</v>
       </c>
@@ -1088,7 +1122,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>512</v>
       </c>
@@ -1096,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>512</v>
       </c>
@@ -1104,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>44267</v>
       </c>
@@ -1130,7 +1164,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>44267</v>
       </c>
@@ -1156,7 +1190,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>44267</v>
       </c>
@@ -1182,7 +1216,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>44267</v>
       </c>
@@ -1208,7 +1242,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>44267</v>
       </c>
@@ -1216,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>44267</v>
       </c>
@@ -1224,7 +1258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>61</v>
       </c>
@@ -1250,7 +1284,7 @@
         <v>0.21020878142857069</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>61</v>
       </c>
@@ -1276,7 +1310,7 @@
         <v>0.1725940592680896</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>61</v>
       </c>
@@ -1302,7 +1336,7 @@
         <v>0.24913012771935131</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>61</v>
       </c>
@@ -1328,7 +1362,7 @@
         <v>0.1886277596700438</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>61</v>
       </c>
@@ -1336,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61</v>
       </c>
@@ -1344,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>924</v>
       </c>
@@ -1370,7 +1404,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>924</v>
       </c>
@@ -1396,7 +1430,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>924</v>
       </c>
@@ -1422,7 +1456,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>924</v>
       </c>
@@ -1448,7 +1482,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>924</v>
       </c>
@@ -1456,7 +1490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>924</v>
       </c>
@@ -1464,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>44221</v>
       </c>
@@ -1490,7 +1524,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>44221</v>
       </c>
@@ -1516,7 +1550,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>44221</v>
       </c>
@@ -1542,7 +1576,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>44221</v>
       </c>
@@ -1568,7 +1602,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>44221</v>
       </c>
@@ -1576,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>44221</v>
       </c>
@@ -1584,7 +1618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45617</v>
       </c>
@@ -1610,7 +1644,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>45617</v>
       </c>
@@ -1636,7 +1670,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>45617</v>
       </c>
@@ -1662,7 +1696,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45617</v>
       </c>
@@ -1688,7 +1722,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>45617</v>
       </c>
@@ -1696,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>45617</v>
       </c>
@@ -1704,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>544</v>
       </c>
@@ -1730,7 +1764,7 @@
         <v>0.47247266123279702</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>544</v>
       </c>
@@ -1756,7 +1790,7 @@
         <v>0.45062373664264549</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>544</v>
       </c>
@@ -1764,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>544</v>
       </c>
@@ -1790,7 +1824,7 @@
         <v>0.46010103437159589</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>544</v>
       </c>
@@ -1798,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>544</v>
       </c>
@@ -1806,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>464</v>
       </c>
@@ -1832,7 +1866,7 @@
         <v>0.51979315581418506</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>464</v>
       </c>
@@ -1858,7 +1892,7 @@
         <v>0.52041834200398829</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>464</v>
       </c>
@@ -1884,7 +1918,7 @@
         <v>0.47002349383259179</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>464</v>
       </c>
@@ -1910,7 +1944,7 @@
         <v>0.48322410123960757</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>464</v>
       </c>
@@ -1918,7 +1952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>464</v>
       </c>
@@ -1926,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>519</v>
       </c>
@@ -1952,7 +1986,7 @@
         <v>0.34086559729107369</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>519</v>
       </c>
@@ -1978,7 +2012,7 @@
         <v>0.60096339848714031</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>519</v>
       </c>
@@ -2004,7 +2038,7 @@
         <v>0.51436077455110518</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>519</v>
       </c>
@@ -2030,7 +2064,7 @@
         <v>0.63886602974681217</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>519</v>
       </c>
@@ -2038,7 +2072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>519</v>
       </c>
@@ -2046,7 +2080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>523</v>
       </c>
@@ -2069,7 +2103,7 @@
         <v>0.4316560460317187</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>523</v>
       </c>
@@ -2095,7 +2129,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>523</v>
       </c>
@@ -2103,7 +2137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>523</v>
       </c>
@@ -2129,7 +2163,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>523</v>
       </c>
@@ -2137,7 +2171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>523</v>
       </c>
@@ -2145,7 +2179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>494</v>
       </c>
@@ -2168,7 +2202,7 @@
         <v>0.59525476379117848</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>494</v>
       </c>
@@ -2191,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>494</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>494</v>
       </c>
@@ -2237,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>494</v>
       </c>
@@ -2245,7 +2279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>494</v>
       </c>
@@ -2253,7 +2287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>686</v>
       </c>
@@ -2279,7 +2313,7 @@
         <v>0.58519932177503464</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>686</v>
       </c>
@@ -2305,7 +2339,7 @@
         <v>0.43047096409018148</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>686</v>
       </c>
@@ -2313,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>686</v>
       </c>
@@ -2339,7 +2373,7 @@
         <v>0.4536830305689582</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>686</v>
       </c>
@@ -2347,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>686</v>
       </c>
@@ -2355,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>689</v>
       </c>
@@ -2381,7 +2415,7 @@
         <v>0.55542156510238028</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>689</v>
       </c>
@@ -2407,7 +2441,7 @@
         <v>0.44744049265562419</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>689</v>
       </c>
@@ -2415,7 +2449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>689</v>
       </c>
@@ -2441,7 +2475,7 @@
         <v>0.43591542482864559</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>689</v>
       </c>
@@ -2449,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>689</v>
       </c>
@@ -2457,7 +2491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>373</v>
       </c>
@@ -2483,7 +2517,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>373</v>
       </c>
@@ -2509,7 +2543,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>373</v>
       </c>
@@ -2535,7 +2569,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>373</v>
       </c>
@@ -2561,7 +2595,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>373</v>
       </c>
@@ -2569,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>373</v>
       </c>
@@ -2577,7 +2611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>679</v>
       </c>
@@ -2603,7 +2637,7 @@
         <v>0.52166083655832696</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>679</v>
       </c>
@@ -2629,7 +2663,7 @@
         <v>0.46602482419544627</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>679</v>
       </c>
@@ -2655,7 +2689,7 @@
         <v>0.40094854843774658</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>679</v>
       </c>
@@ -2681,7 +2715,7 @@
         <v>0.6826026219713317</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>679</v>
       </c>
@@ -2689,7 +2723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>679</v>
       </c>
@@ -2697,7 +2731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>679</v>
       </c>
@@ -2723,7 +2757,7 @@
         <v>0.49944514913391708</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>679</v>
       </c>
@@ -2749,7 +2783,7 @@
         <v>0.38312638304429941</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>679</v>
       </c>
@@ -2775,7 +2809,7 @@
         <v>0.36393402416275611</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>679</v>
       </c>
@@ -2801,7 +2835,7 @@
         <v>0.40379621573515012</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>679</v>
       </c>
@@ -2809,7 +2843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>679</v>
       </c>
@@ -2817,7 +2851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1460</v>
       </c>
@@ -2843,7 +2877,7 @@
         <v>0.47808981615296098</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1460</v>
       </c>
@@ -2869,7 +2903,7 @@
         <v>0.36878818678924369</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1460</v>
       </c>
@@ -2895,7 +2929,7 @@
         <v>0.37673092030953548</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1460</v>
       </c>
@@ -2921,7 +2955,7 @@
         <v>0.35716221718515279</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1460</v>
       </c>
@@ -2929,7 +2963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1460</v>
       </c>
@@ -2937,7 +2971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>895</v>
       </c>
@@ -2963,7 +2997,7 @@
         <v>0.38345828289582562</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>895</v>
       </c>
@@ -2989,7 +3023,7 @@
         <v>0.48577214124357299</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>895</v>
       </c>
@@ -3015,7 +3049,7 @@
         <v>0.56468882328757064</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>895</v>
       </c>
@@ -3041,7 +3075,7 @@
         <v>0.47805128899333688</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>895</v>
       </c>
@@ -3049,7 +3083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -3057,7 +3091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>887</v>
       </c>
@@ -3083,7 +3117,7 @@
         <v>0.36184834077196321</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>887</v>
       </c>
@@ -3109,7 +3143,7 @@
         <v>0.39633080750134397</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>887</v>
       </c>
@@ -3135,7 +3169,7 @@
         <v>0.36663943666032039</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>887</v>
       </c>
@@ -3161,7 +3195,7 @@
         <v>0.39702559607018179</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>887</v>
       </c>
@@ -3169,7 +3203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>887</v>
       </c>
@@ -3177,7 +3211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>711</v>
       </c>
@@ -3203,7 +3237,7 @@
         <v>0.51590253657310359</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>711</v>
       </c>
@@ -3229,7 +3263,7 @@
         <v>0.37312353605519782</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>711</v>
       </c>
@@ -3237,7 +3271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>711</v>
       </c>
@@ -3263,7 +3297,7 @@
         <v>0.39959472744250668</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>711</v>
       </c>
@@ -3271,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>711</v>
       </c>
@@ -3279,7 +3313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>712</v>
       </c>
@@ -3305,7 +3339,7 @@
         <v>0.44634411330836787</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>712</v>
       </c>
@@ -3331,7 +3365,7 @@
         <v>0.49084486729383681</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>712</v>
       </c>
@@ -3357,7 +3391,7 @@
         <v>0.5184700634030166</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>712</v>
       </c>
@@ -3383,7 +3417,7 @@
         <v>0.51409819564885262</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>712</v>
       </c>
@@ -3391,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>712</v>
       </c>
@@ -3399,7 +3433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>192</v>
       </c>
@@ -3425,7 +3459,7 @@
         <v>8.1733131581762514E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>192</v>
       </c>
@@ -3451,7 +3485,7 @@
         <v>0.13028150289674639</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>192</v>
       </c>
@@ -3477,7 +3511,7 @@
         <v>0.15095703366992161</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>192</v>
       </c>
@@ -3503,7 +3537,7 @@
         <v>7.8763665852407669E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>192</v>
       </c>
@@ -3511,7 +3545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>192</v>
       </c>
@@ -3519,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>40601</v>
       </c>
@@ -3545,7 +3579,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>40601</v>
       </c>
@@ -3571,7 +3605,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>40601</v>
       </c>
@@ -3597,7 +3631,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>40601</v>
       </c>
@@ -3623,7 +3657,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>40601</v>
       </c>
@@ -3631,7 +3665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>40601</v>
       </c>
@@ -3639,7 +3673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>42361</v>
       </c>
@@ -3665,7 +3699,7 @@
         <v>0.5254546633672228</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>42361</v>
       </c>
@@ -3691,7 +3725,7 @@
         <v>0.40792486702924258</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>42361</v>
       </c>
@@ -3699,7 +3733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>42361</v>
       </c>
@@ -3725,7 +3759,7 @@
         <v>0.37752961582669392</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>42361</v>
       </c>
@@ -3733,11 +3767,251 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>42361</v>
       </c>
       <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>42793</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>8.2373778025309242E-3</v>
+      </c>
+      <c r="D146">
+        <v>8.9364925421398525E-2</v>
+      </c>
+      <c r="E146">
+        <v>0.50456488878399153</v>
+      </c>
+      <c r="F146">
+        <v>0.85033485753299498</v>
+      </c>
+      <c r="G146">
+        <v>0.89235303986307812</v>
+      </c>
+      <c r="H146">
+        <v>0.33217529446448812</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>42793</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>2.0399570465087888E-3</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0.50601947316988993</v>
+      </c>
+      <c r="F147">
+        <v>0.30613063498272708</v>
+      </c>
+      <c r="G147">
+        <v>0.88074988832163137</v>
+      </c>
+      <c r="H147">
+        <v>0.3639332256333398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>42793</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>2.9684543609619141E-2</v>
+      </c>
+      <c r="D148">
+        <v>0.20561855013763539</v>
+      </c>
+      <c r="E148">
+        <v>0.53741858733751413</v>
+      </c>
+      <c r="F148">
+        <v>0.33505374625070972</v>
+      </c>
+      <c r="G148">
+        <v>0.44026079253190942</v>
+      </c>
+      <c r="H148">
+        <v>0.36024367498069698</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>42793</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>1.2526448567708331E-2</v>
+      </c>
+      <c r="D149">
+        <v>8.3390113129015966E-2</v>
+      </c>
+      <c r="E149">
+        <v>0.51033873435158217</v>
+      </c>
+      <c r="F149">
+        <v>0.18195903296499699</v>
+      </c>
+      <c r="G149">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H149">
+        <v>0.2204665173319347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>42793</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>42793</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>42110</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>6.6514105796813966E-3</v>
+      </c>
+      <c r="D152">
+        <v>5.3878787761325993E-2</v>
+      </c>
+      <c r="E152">
+        <v>0.51667872418230609</v>
+      </c>
+      <c r="F152">
+        <v>143.6379943780332</v>
+      </c>
+      <c r="G152">
+        <v>0.72687107526246364</v>
+      </c>
+      <c r="H152">
+        <v>0.42822210330887578</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>42110</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>6.180951595306396E-4</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0.51415935445114158</v>
+      </c>
+      <c r="F153">
+        <v>1.1638082817055191</v>
+      </c>
+      <c r="G153">
+        <v>0.69645486072332474</v>
+      </c>
+      <c r="H153">
+        <v>0.59652300545604231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>42110</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>5.1697926521301271E-3</v>
+      </c>
+      <c r="D154">
+        <v>0.39159894972869419</v>
+      </c>
+      <c r="E154">
+        <v>0.5057342988722463</v>
+      </c>
+      <c r="F154">
+        <v>5.8107629537980534</v>
+      </c>
+      <c r="G154">
+        <v>9.7513406088203775E-2</v>
+      </c>
+      <c r="H154">
+        <v>0.60071511853380921</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>42110</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>7.9144859313964844E-4</v>
+      </c>
+      <c r="D155">
+        <v>4.2457481284477142E-2</v>
+      </c>
+      <c r="E155">
+        <v>0.52005044030255876</v>
+      </c>
+      <c r="F155">
+        <v>0.28430306012870782</v>
+      </c>
+      <c r="G155">
+        <v>0.88288069207108655</v>
+      </c>
+      <c r="H155">
+        <v>0.62177195778262473</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>42110</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>42110</v>
+      </c>
+      <c r="B157" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3748,23 +4022,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270676A6-7F2D-4D8C-9E0F-5961171339EE}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:H145"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3790,7 +4064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>512</v>
       </c>
@@ -3816,7 +4090,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>512</v>
       </c>
@@ -3842,7 +4116,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>512</v>
       </c>
@@ -3850,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>512</v>
       </c>
@@ -3876,7 +4150,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>512</v>
       </c>
@@ -3884,7 +4158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>512</v>
       </c>
@@ -3892,7 +4166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>44267</v>
       </c>
@@ -3918,7 +4192,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>44267</v>
       </c>
@@ -3944,7 +4218,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>44267</v>
       </c>
@@ -3970,7 +4244,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>44267</v>
       </c>
@@ -3996,7 +4270,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>44267</v>
       </c>
@@ -4004,7 +4278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>44267</v>
       </c>
@@ -4012,7 +4286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>61</v>
       </c>
@@ -4038,7 +4312,7 @@
         <v>0.2160348382721704</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>61</v>
       </c>
@@ -4064,7 +4338,7 @@
         <v>0.2404629332354124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>61</v>
       </c>
@@ -4090,7 +4364,7 @@
         <v>0.24632060479637929</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>61</v>
       </c>
@@ -4116,7 +4390,7 @@
         <v>0.27790012790895152</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>61</v>
       </c>
@@ -4124,7 +4398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61</v>
       </c>
@@ -4132,7 +4406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>924</v>
       </c>
@@ -4158,7 +4432,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>924</v>
       </c>
@@ -4184,7 +4458,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>924</v>
       </c>
@@ -4210,7 +4484,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>924</v>
       </c>
@@ -4236,7 +4510,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>924</v>
       </c>
@@ -4244,7 +4518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>924</v>
       </c>
@@ -4252,7 +4526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>44221</v>
       </c>
@@ -4278,7 +4552,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>44221</v>
       </c>
@@ -4304,7 +4578,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>44221</v>
       </c>
@@ -4330,7 +4604,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>44221</v>
       </c>
@@ -4356,7 +4630,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>44221</v>
       </c>
@@ -4364,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>44221</v>
       </c>
@@ -4372,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45617</v>
       </c>
@@ -4398,7 +4672,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>45617</v>
       </c>
@@ -4424,7 +4698,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>45617</v>
       </c>
@@ -4450,7 +4724,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45617</v>
       </c>
@@ -4476,7 +4750,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>45617</v>
       </c>
@@ -4484,7 +4758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>45617</v>
       </c>
@@ -4492,7 +4766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>544</v>
       </c>
@@ -4518,7 +4792,7 @@
         <v>0.31883276782378039</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>544</v>
       </c>
@@ -4544,7 +4818,7 @@
         <v>0.49912019932006718</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>544</v>
       </c>
@@ -4552,7 +4826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>544</v>
       </c>
@@ -4578,7 +4852,7 @@
         <v>0.37066952079067339</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>544</v>
       </c>
@@ -4586,7 +4860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>544</v>
       </c>
@@ -4594,7 +4868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>464</v>
       </c>
@@ -4620,7 +4894,7 @@
         <v>0.43603389799555631</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>464</v>
       </c>
@@ -4646,7 +4920,7 @@
         <v>0.54267453496676299</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>464</v>
       </c>
@@ -4672,7 +4946,7 @@
         <v>0.42524207786199603</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>464</v>
       </c>
@@ -4698,7 +4972,7 @@
         <v>0.52798234102867514</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>464</v>
       </c>
@@ -4706,7 +4980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>464</v>
       </c>
@@ -4714,7 +4988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>519</v>
       </c>
@@ -4740,7 +5014,7 @@
         <v>0.32460912940780617</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>519</v>
       </c>
@@ -4766,7 +5040,7 @@
         <v>0.58392900468560982</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>519</v>
       </c>
@@ -4792,7 +5066,7 @@
         <v>0.51055921043890751</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>519</v>
       </c>
@@ -4818,7 +5092,7 @@
         <v>0.60250974052531847</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>519</v>
       </c>
@@ -4826,7 +5100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>519</v>
       </c>
@@ -4834,7 +5108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>523</v>
       </c>
@@ -4857,7 +5131,7 @@
         <v>0.46503633361310392</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>523</v>
       </c>
@@ -4883,7 +5157,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>523</v>
       </c>
@@ -4891,7 +5165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>523</v>
       </c>
@@ -4917,7 +5191,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>523</v>
       </c>
@@ -4925,7 +5199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>523</v>
       </c>
@@ -4933,7 +5207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>494</v>
       </c>
@@ -4956,7 +5230,7 @@
         <v>0.62063872148695554</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>494</v>
       </c>
@@ -4979,7 +5253,7 @@
         <v>0.99999999602714129</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>494</v>
       </c>
@@ -5002,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>494</v>
       </c>
@@ -5025,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>494</v>
       </c>
@@ -5033,7 +5307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>494</v>
       </c>
@@ -5041,7 +5315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>686</v>
       </c>
@@ -5067,7 +5341,7 @@
         <v>0.45927301371629992</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>686</v>
       </c>
@@ -5093,7 +5367,7 @@
         <v>0.49586993185714773</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>686</v>
       </c>
@@ -5101,7 +5375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>686</v>
       </c>
@@ -5127,7 +5401,7 @@
         <v>0.49403956711495228</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>686</v>
       </c>
@@ -5135,7 +5409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>686</v>
       </c>
@@ -5143,7 +5417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>689</v>
       </c>
@@ -5169,7 +5443,7 @@
         <v>0.33726701176403973</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>689</v>
       </c>
@@ -5195,7 +5469,7 @@
         <v>0.55710432766415052</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>689</v>
       </c>
@@ -5203,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>689</v>
       </c>
@@ -5229,7 +5503,7 @@
         <v>0.52440211888875143</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>689</v>
       </c>
@@ -5237,7 +5511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>689</v>
       </c>
@@ -5245,7 +5519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>373</v>
       </c>
@@ -5271,7 +5545,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>373</v>
       </c>
@@ -5297,7 +5571,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>373</v>
       </c>
@@ -5323,7 +5597,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>373</v>
       </c>
@@ -5349,7 +5623,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>373</v>
       </c>
@@ -5357,7 +5631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>373</v>
       </c>
@@ -5365,7 +5639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>679</v>
       </c>
@@ -5391,7 +5665,7 @@
         <v>0.37306769180456267</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>679</v>
       </c>
@@ -5417,7 +5691,7 @@
         <v>0.44983238081549809</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>679</v>
       </c>
@@ -5443,7 +5717,7 @@
         <v>0.46540010179428049</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>679</v>
       </c>
@@ -5469,7 +5743,7 @@
         <v>0.51365298720294295</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>679</v>
       </c>
@@ -5477,7 +5751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>679</v>
       </c>
@@ -5485,7 +5759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>679</v>
       </c>
@@ -5511,7 +5785,7 @@
         <v>0.35990170790129772</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>679</v>
       </c>
@@ -5537,7 +5811,7 @@
         <v>0.55000177942746542</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>679</v>
       </c>
@@ -5563,7 +5837,7 @@
         <v>0.44859315939309269</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>679</v>
       </c>
@@ -5589,7 +5863,7 @@
         <v>0.54341726699006676</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>679</v>
       </c>
@@ -5597,7 +5871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>679</v>
       </c>
@@ -5605,7 +5879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1460</v>
       </c>
@@ -5631,7 +5905,7 @@
         <v>0.33386453928677873</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1460</v>
       </c>
@@ -5657,7 +5931,7 @@
         <v>0.50119405099100245</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1460</v>
       </c>
@@ -5683,7 +5957,7 @@
         <v>0.5631267319115687</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1460</v>
       </c>
@@ -5709,7 +5983,7 @@
         <v>0.57034678598127897</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1460</v>
       </c>
@@ -5717,7 +5991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1460</v>
       </c>
@@ -5725,7 +5999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>895</v>
       </c>
@@ -5751,7 +6025,7 @@
         <v>0.48930600609211788</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>895</v>
       </c>
@@ -5777,7 +6051,7 @@
         <v>0.43440148951290108</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>895</v>
       </c>
@@ -5803,7 +6077,7 @@
         <v>0.572113784800654</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>895</v>
       </c>
@@ -5829,7 +6103,7 @@
         <v>0.60192881863506864</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>895</v>
       </c>
@@ -5837,7 +6111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -5845,7 +6119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>887</v>
       </c>
@@ -5871,7 +6145,7 @@
         <v>0.2136463805800797</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>887</v>
       </c>
@@ -5897,7 +6171,7 @@
         <v>0.33551947230761808</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>887</v>
       </c>
@@ -5923,7 +6197,7 @@
         <v>0.36696290003748222</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>887</v>
       </c>
@@ -5949,7 +6223,7 @@
         <v>0.32742953229810462</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>887</v>
       </c>
@@ -5957,7 +6231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>887</v>
       </c>
@@ -5965,7 +6239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>711</v>
       </c>
@@ -5991,7 +6265,7 @@
         <v>0.38731934060766821</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>711</v>
       </c>
@@ -6017,7 +6291,7 @@
         <v>0.38165242577858849</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>711</v>
       </c>
@@ -6025,7 +6299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>711</v>
       </c>
@@ -6051,7 +6325,7 @@
         <v>0.4944314123231251</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>711</v>
       </c>
@@ -6059,7 +6333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>711</v>
       </c>
@@ -6067,7 +6341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>712</v>
       </c>
@@ -6093,7 +6367,7 @@
         <v>0.43521630134800737</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>712</v>
       </c>
@@ -6119,7 +6393,7 @@
         <v>0.5171899530348314</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>712</v>
       </c>
@@ -6145,7 +6419,7 @@
         <v>0.44803049353460678</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>712</v>
       </c>
@@ -6171,7 +6445,7 @@
         <v>0.50574945275858585</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>712</v>
       </c>
@@ -6179,7 +6453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>712</v>
       </c>
@@ -6187,7 +6461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>192</v>
       </c>
@@ -6213,7 +6487,7 @@
         <v>0.1111986401024455</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>192</v>
       </c>
@@ -6239,7 +6513,7 @@
         <v>0.16432750440806479</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>192</v>
       </c>
@@ -6265,7 +6539,7 @@
         <v>0.16855378258392709</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>192</v>
       </c>
@@ -6291,7 +6565,7 @@
         <v>0.17886331117048371</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>192</v>
       </c>
@@ -6299,7 +6573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>192</v>
       </c>
@@ -6307,7 +6581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>40601</v>
       </c>
@@ -6333,7 +6607,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>40601</v>
       </c>
@@ -6359,7 +6633,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>40601</v>
       </c>
@@ -6367,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>40601</v>
       </c>
@@ -6393,7 +6667,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>40601</v>
       </c>
@@ -6401,7 +6675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>40601</v>
       </c>
@@ -6409,7 +6683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>42361</v>
       </c>
@@ -6435,7 +6709,7 @@
         <v>0.43066788553552748</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>42361</v>
       </c>
@@ -6461,7 +6735,7 @@
         <v>0.39440365290336382</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>42361</v>
       </c>
@@ -6469,7 +6743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>42361</v>
       </c>
@@ -6495,7 +6769,7 @@
         <v>0.43445788053532819</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>42361</v>
       </c>
@@ -6503,11 +6777,251 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>42361</v>
       </c>
       <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>42793</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>9.9724133809407558E-3</v>
+      </c>
+      <c r="D146">
+        <v>9.6105205390745352E-2</v>
+      </c>
+      <c r="E146">
+        <v>0.52421129479151762</v>
+      </c>
+      <c r="F146">
+        <v>1.0039034412901411</v>
+      </c>
+      <c r="G146">
+        <v>0.89146896361475236</v>
+      </c>
+      <c r="H146">
+        <v>0.3709025197155244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>42793</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>1.75776481628418E-3</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0.54976633180177026</v>
+      </c>
+      <c r="F147">
+        <v>0.16665402211225441</v>
+      </c>
+      <c r="G147">
+        <v>0.78607031107437075</v>
+      </c>
+      <c r="H147">
+        <v>0.37970989981655828</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>42793</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>8.4705670674641922E-3</v>
+      </c>
+      <c r="D148">
+        <v>0.32223590083039472</v>
+      </c>
+      <c r="E148">
+        <v>0.56013388556318966</v>
+      </c>
+      <c r="F148">
+        <v>0.17897136488566509</v>
+      </c>
+      <c r="G148">
+        <v>0.57087018654104082</v>
+      </c>
+      <c r="H148">
+        <v>0.2658153092938827</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>42793</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>1.140298843383789E-2</v>
+      </c>
+      <c r="D149">
+        <v>0.1138085986294208</v>
+      </c>
+      <c r="E149">
+        <v>0.62947664924201829</v>
+      </c>
+      <c r="F149">
+        <v>3.1790344585278449E-2</v>
+      </c>
+      <c r="G149">
+        <v>0.79630718119090216</v>
+      </c>
+      <c r="H149">
+        <v>0.23974137180354679</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>42793</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>42793</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>42110</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1.4877738714218139E-2</v>
+      </c>
+      <c r="D152">
+        <v>8.1163420119907931E-2</v>
+      </c>
+      <c r="E152">
+        <v>0.51346208619333289</v>
+      </c>
+      <c r="F152">
+        <v>95.187110133432597</v>
+      </c>
+      <c r="G152">
+        <v>0.68207650927673669</v>
+      </c>
+      <c r="H152">
+        <v>0.37482089066111768</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>42110</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>1.086858749389648E-3</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0.50444472040514321</v>
+      </c>
+      <c r="F153">
+        <v>2.4390959298914341</v>
+      </c>
+      <c r="G153">
+        <v>0.55398699156302644</v>
+      </c>
+      <c r="H153">
+        <v>0.75725130758786985</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>42110</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>4.986169338226318E-3</v>
+      </c>
+      <c r="D154">
+        <v>0.45761663873431557</v>
+      </c>
+      <c r="E154">
+        <v>0.50099665221973466</v>
+      </c>
+      <c r="F154">
+        <v>6.806235575627765</v>
+      </c>
+      <c r="G154">
+        <v>9.710020361558451E-2</v>
+      </c>
+      <c r="H154">
+        <v>0.7109968027661735</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>42110</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>1.234082460403442E-3</v>
+      </c>
+      <c r="D155">
+        <v>4.6729715516996687E-2</v>
+      </c>
+      <c r="E155">
+        <v>0.50329658072822925</v>
+      </c>
+      <c r="F155">
+        <v>3.6743992047069551</v>
+      </c>
+      <c r="G155">
+        <v>0.54546021723889049</v>
+      </c>
+      <c r="H155">
+        <v>0.83015758651893512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>42110</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>42110</v>
+      </c>
+      <c r="B157" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6518,23 +7032,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CF1288-85BD-41CF-8B2F-6CE4B547F321}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="O154" sqref="O154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6560,7 +7074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>512</v>
       </c>
@@ -6586,7 +7100,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>512</v>
       </c>
@@ -6612,7 +7126,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>512</v>
       </c>
@@ -6620,7 +7134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>512</v>
       </c>
@@ -6646,7 +7160,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>512</v>
       </c>
@@ -6672,7 +7186,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>512</v>
       </c>
@@ -6680,7 +7194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>44267</v>
       </c>
@@ -6706,7 +7220,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>44267</v>
       </c>
@@ -6732,7 +7246,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>44267</v>
       </c>
@@ -6758,7 +7272,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>44267</v>
       </c>
@@ -6784,7 +7298,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>44267</v>
       </c>
@@ -6810,7 +7324,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>44267</v>
       </c>
@@ -6818,7 +7332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>61</v>
       </c>
@@ -6844,7 +7358,7 @@
         <v>0.16521512082268711</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>61</v>
       </c>
@@ -6870,7 +7384,7 @@
         <v>0.24611094969349229</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>61</v>
       </c>
@@ -6896,7 +7410,7 @@
         <v>0.28392183419368922</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>61</v>
       </c>
@@ -6922,7 +7436,7 @@
         <v>0.32211987061909347</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>61</v>
       </c>
@@ -6948,7 +7462,7 @@
         <v>0.23950706358119001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61</v>
       </c>
@@ -6956,7 +7470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>924</v>
       </c>
@@ -6982,7 +7496,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>924</v>
       </c>
@@ -7008,7 +7522,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>924</v>
       </c>
@@ -7034,7 +7548,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>924</v>
       </c>
@@ -7060,7 +7574,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>924</v>
       </c>
@@ -7086,7 +7600,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>924</v>
       </c>
@@ -7094,7 +7608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>44221</v>
       </c>
@@ -7120,7 +7634,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>44221</v>
       </c>
@@ -7146,7 +7660,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>44221</v>
       </c>
@@ -7154,7 +7668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>44221</v>
       </c>
@@ -7180,7 +7694,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>44221</v>
       </c>
@@ -7206,7 +7720,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>44221</v>
       </c>
@@ -7214,7 +7728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45617</v>
       </c>
@@ -7240,7 +7754,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>45617</v>
       </c>
@@ -7266,7 +7780,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>45617</v>
       </c>
@@ -7292,7 +7806,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45617</v>
       </c>
@@ -7318,7 +7832,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>45617</v>
       </c>
@@ -7344,7 +7858,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>45617</v>
       </c>
@@ -7352,7 +7866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>544</v>
       </c>
@@ -7378,7 +7892,7 @@
         <v>0.4571021149543385</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>544</v>
       </c>
@@ -7404,7 +7918,7 @@
         <v>0.92592592592592593</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>544</v>
       </c>
@@ -7412,7 +7926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>544</v>
       </c>
@@ -7438,7 +7952,7 @@
         <v>0.9259259236816848</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>544</v>
       </c>
@@ -7464,7 +7978,7 @@
         <v>0.83333333333333515</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>544</v>
       </c>
@@ -7472,7 +7986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>464</v>
       </c>
@@ -7498,7 +8012,7 @@
         <v>0.49708836953759622</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>464</v>
       </c>
@@ -7524,7 +8038,7 @@
         <v>0.59936787385141155</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>464</v>
       </c>
@@ -7550,7 +8064,7 @@
         <v>0.57756288498912378</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>464</v>
       </c>
@@ -7576,7 +8090,7 @@
         <v>0.70018413182600003</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>464</v>
       </c>
@@ -7602,7 +8116,7 @@
         <v>0.54334479744285968</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>464</v>
       </c>
@@ -7610,7 +8124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>519</v>
       </c>
@@ -7636,7 +8150,7 @@
         <v>0.35870327860233681</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>519</v>
       </c>
@@ -7662,7 +8176,7 @@
         <v>0.83703591820123613</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>519</v>
       </c>
@@ -7688,7 +8202,7 @@
         <v>0.45975263952192502</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>519</v>
       </c>
@@ -7714,7 +8228,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>519</v>
       </c>
@@ -7740,7 +8254,7 @@
         <v>0.63826871158355825</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>519</v>
       </c>
@@ -7748,7 +8262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>523</v>
       </c>
@@ -7771,7 +8285,7 @@
         <v>0.47459522999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>523</v>
       </c>
@@ -7797,7 +8311,7 @@
         <v>0.94999999300000004</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>523</v>
       </c>
@@ -7805,7 +8319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>523</v>
       </c>
@@ -7831,7 +8345,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>523</v>
       </c>
@@ -7857,7 +8371,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>523</v>
       </c>
@@ -7865,7 +8379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>494</v>
       </c>
@@ -7888,7 +8402,7 @@
         <v>0.58755336029769234</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>494</v>
       </c>
@@ -7911,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>494</v>
       </c>
@@ -7934,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>494</v>
       </c>
@@ -7957,7 +8471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>494</v>
       </c>
@@ -7980,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>494</v>
       </c>
@@ -7988,7 +8502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>686</v>
       </c>
@@ -8014,7 +8528,7 @@
         <v>0.46671321013731598</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>686</v>
       </c>
@@ -8040,7 +8554,7 @@
         <v>0.88679244537496782</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>686</v>
       </c>
@@ -8048,7 +8562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>686</v>
       </c>
@@ -8074,7 +8588,7 @@
         <v>0.94339622641509435</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>686</v>
       </c>
@@ -8100,7 +8614,7 @@
         <v>0.68527779887671081</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>686</v>
       </c>
@@ -8108,7 +8622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>689</v>
       </c>
@@ -8134,7 +8648,7 @@
         <v>0.44991912647644999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>689</v>
       </c>
@@ -8160,7 +8674,7 @@
         <v>0.95744680851063835</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>689</v>
       </c>
@@ -8168,7 +8682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>689</v>
       </c>
@@ -8194,7 +8708,7 @@
         <v>0.98936169841227695</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>689</v>
       </c>
@@ -8220,7 +8734,7 @@
         <v>0.80259236474222684</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>689</v>
       </c>
@@ -8228,7 +8742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>373</v>
       </c>
@@ -8254,7 +8768,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>373</v>
       </c>
@@ -8280,7 +8794,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>373</v>
       </c>
@@ -8306,7 +8820,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>373</v>
       </c>
@@ -8332,7 +8846,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>373</v>
       </c>
@@ -8358,7 +8872,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>373</v>
       </c>
@@ -8366,7 +8880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>679</v>
       </c>
@@ -8392,7 +8906,7 @@
         <v>0.33736453031414809</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>679</v>
       </c>
@@ -8418,7 +8932,7 @@
         <v>0.59334008123659687</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>679</v>
       </c>
@@ -8444,7 +8958,7 @@
         <v>0.42741512973863077</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>679</v>
       </c>
@@ -8470,7 +8984,7 @@
         <v>0.64731714315092748</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>679</v>
       </c>
@@ -8496,7 +9010,7 @@
         <v>0.51123271943913795</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>679</v>
       </c>
@@ -8504,7 +9018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>679</v>
       </c>
@@ -8530,7 +9044,7 @@
         <v>0.32379103769361278</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>679</v>
       </c>
@@ -8556,7 +9070,7 @@
         <v>0.49365521667808998</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>679</v>
       </c>
@@ -8582,7 +9096,7 @@
         <v>0.37354945809339613</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>679</v>
       </c>
@@ -8608,7 +9122,7 @@
         <v>0.50790655424224951</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>679</v>
       </c>
@@ -8634,7 +9148,7 @@
         <v>0.46726637666029908</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>679</v>
       </c>
@@ -8642,7 +9156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1460</v>
       </c>
@@ -8668,7 +9182,7 @@
         <v>0.33596802415537202</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1460</v>
       </c>
@@ -8694,7 +9208,7 @@
         <v>0.45705687161038</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1460</v>
       </c>
@@ -8720,7 +9234,7 @@
         <v>0.63142636154350595</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1460</v>
       </c>
@@ -8746,7 +9260,7 @@
         <v>0.42270031867018298</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1460</v>
       </c>
@@ -8772,7 +9286,7 @@
         <v>0.50391910926637307</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1460</v>
       </c>
@@ -8780,7 +9294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>895</v>
       </c>
@@ -8806,7 +9320,7 @@
         <v>0.48883350379536039</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>895</v>
       </c>
@@ -8832,7 +9346,7 @@
         <v>0.52485407148563101</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>895</v>
       </c>
@@ -8858,7 +9372,7 @@
         <v>0.46979726601668781</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>895</v>
       </c>
@@ -8884,7 +9398,7 @@
         <v>0.62983714958947856</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>895</v>
       </c>
@@ -8910,7 +9424,7 @@
         <v>0.42564282850481489</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -8918,7 +9432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>887</v>
       </c>
@@ -8944,7 +9458,7 @@
         <v>0.2345147572069092</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>887</v>
       </c>
@@ -8970,7 +9484,7 @@
         <v>0.43694771046025271</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>887</v>
       </c>
@@ -8996,7 +9510,7 @@
         <v>0.38429823091524201</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>887</v>
       </c>
@@ -9022,7 +9536,7 @@
         <v>0.38461538461538458</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>887</v>
       </c>
@@ -9048,7 +9562,7 @@
         <v>0.3775281047581141</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>887</v>
       </c>
@@ -9056,7 +9570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>711</v>
       </c>
@@ -9082,7 +9596,7 @@
         <v>0.26173231457505758</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>711</v>
       </c>
@@ -9108,7 +9622,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>711</v>
       </c>
@@ -9116,7 +9630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>711</v>
       </c>
@@ -9142,7 +9656,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>711</v>
       </c>
@@ -9168,7 +9682,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>711</v>
       </c>
@@ -9176,7 +9690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>712</v>
       </c>
@@ -9202,7 +9716,7 @@
         <v>0.45849154603017878</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>712</v>
       </c>
@@ -9228,7 +9742,7 @@
         <v>0.72667607548388891</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>712</v>
       </c>
@@ -9236,7 +9750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>712</v>
       </c>
@@ -9262,7 +9776,7 @@
         <v>0.69769347298987239</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>712</v>
       </c>
@@ -9288,7 +9802,7 @@
         <v>0.79383747471402843</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>712</v>
       </c>
@@ -9296,7 +9810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>192</v>
       </c>
@@ -9322,7 +9836,7 @@
         <v>6.5637723612451238E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>192</v>
       </c>
@@ -9348,7 +9862,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>192</v>
       </c>
@@ -9374,7 +9888,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>192</v>
       </c>
@@ -9400,7 +9914,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>192</v>
       </c>
@@ -9426,7 +9940,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>192</v>
       </c>
@@ -9434,7 +9948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>40601</v>
       </c>
@@ -9460,7 +9974,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>40601</v>
       </c>
@@ -9486,7 +10000,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>40601</v>
       </c>
@@ -9494,7 +10008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>40601</v>
       </c>
@@ -9520,7 +10034,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>40601</v>
       </c>
@@ -9546,7 +10060,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>40601</v>
       </c>
@@ -9554,7 +10068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>42361</v>
       </c>
@@ -9580,7 +10094,7 @@
         <v>0.90323186258435217</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>42361</v>
       </c>
@@ -9606,7 +10120,7 @@
         <v>0.93939393939393945</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>42361</v>
       </c>
@@ -9614,7 +10128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>42361</v>
       </c>
@@ -9640,7 +10154,7 @@
         <v>0.92929292929292928</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>42361</v>
       </c>
@@ -9666,11 +10180,287 @@
         <v>0.95117845117845112</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>42361</v>
       </c>
       <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>42793</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1.496122678120931E-2</v>
+      </c>
+      <c r="D146">
+        <v>0.1239768855728442</v>
+      </c>
+      <c r="E146">
+        <v>0.50086030049664187</v>
+      </c>
+      <c r="F146">
+        <v>1.518876616791492</v>
+      </c>
+      <c r="G146">
+        <v>0.89505476092268665</v>
+      </c>
+      <c r="H146">
+        <v>0.32415472614391749</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>42793</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>2.1047544479370121E-2</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0.50238095238095237</v>
+      </c>
+      <c r="F147">
+        <v>0.45426117183023118</v>
+      </c>
+      <c r="G147">
+        <v>0.79950447007126313</v>
+      </c>
+      <c r="H147">
+        <v>0.36930377653106611</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>42793</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>1.7770799001057939E-2</v>
+      </c>
+      <c r="D148">
+        <v>0.32566666666666672</v>
+      </c>
+      <c r="E148">
+        <v>0.55193133047210297</v>
+      </c>
+      <c r="F148">
+        <v>0.28729999111212978</v>
+      </c>
+      <c r="G148">
+        <v>0.56158729007397379</v>
+      </c>
+      <c r="H148">
+        <v>0.30715430620263667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>42793</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>3.101658821105957E-2</v>
+      </c>
+      <c r="D149">
+        <v>0.15866666666666671</v>
+      </c>
+      <c r="E149">
+        <v>0.50319693094629159</v>
+      </c>
+      <c r="F149">
+        <v>1.0283774660560909</v>
+      </c>
+      <c r="G149">
+        <v>0.77447132293725329</v>
+      </c>
+      <c r="H149">
+        <v>0.35555555555555518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>42793</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>1.3333479563395179E-3</v>
+      </c>
+      <c r="D150">
+        <v>6.7111109238531849E-2</v>
+      </c>
+      <c r="E150">
+        <v>0.51788694781350841</v>
+      </c>
+      <c r="F150">
+        <v>0.3804390145297295</v>
+      </c>
+      <c r="G150">
+        <v>0.80660522709694593</v>
+      </c>
+      <c r="H150">
+        <v>0.3865273854657954</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>42793</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>42110</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1.01195068359375E-2</v>
+      </c>
+      <c r="D152">
+        <v>7.7629664305587279E-2</v>
+      </c>
+      <c r="E152">
+        <v>0.51899097056502219</v>
+      </c>
+      <c r="F152">
+        <v>187.5646522736271</v>
+      </c>
+      <c r="G152">
+        <v>0.61087285673447478</v>
+      </c>
+      <c r="H152">
+        <v>0.41085431285429341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>42110</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>1.110826969146728E-3</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0.50180336417290183</v>
+      </c>
+      <c r="F153">
+        <v>127.27337368673309</v>
+      </c>
+      <c r="G153">
+        <v>0.39428091160892381</v>
+      </c>
+      <c r="H153">
+        <v>0.91419011391627081</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>42110</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>9.6122283935546875E-3</v>
+      </c>
+      <c r="D154">
+        <v>0.46779500000000312</v>
+      </c>
+      <c r="E154">
+        <v>0.50766764254844521</v>
+      </c>
+      <c r="F154">
+        <v>29.484011751430149</v>
+      </c>
+      <c r="G154">
+        <v>7.8919640054394696E-2</v>
+      </c>
+      <c r="H154">
+        <v>0.7398929613530868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>42110</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>1.476855278015137E-3</v>
+      </c>
+      <c r="D155">
+        <v>5.2245500000001097E-2</v>
+      </c>
+      <c r="E155">
+        <v>0.50050631513053712</v>
+      </c>
+      <c r="F155">
+        <v>146.9167001164121</v>
+      </c>
+      <c r="G155">
+        <v>0.31863435965285691</v>
+      </c>
+      <c r="H155">
+        <v>0.92646666637410335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>42110</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>4.9350284337997437E-2</v>
+      </c>
+      <c r="D156">
+        <v>4.3598199449360053E-2</v>
+      </c>
+      <c r="E156">
+        <v>0.51147697512999923</v>
+      </c>
+      <c r="F156">
+        <v>5.3842925699187409</v>
+      </c>
+      <c r="G156">
+        <v>0.59736458831765393</v>
+      </c>
+      <c r="H156">
+        <v>0.74819444374559141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>42110</v>
+      </c>
+      <c r="B157" t="s">
         <v>7</v>
       </c>
     </row>
